--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/NEBRASKA_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/NEBRASKA_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D665"/>
+  <dimension ref="A1:D659"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,34 +360,34 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGUASCALIENTES</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AGUASCALIENTES</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
       <c r="C2">
@@ -400,7 +400,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>EL LLANO</t>
+          <t>El Llano</t>
         </is>
       </c>
       <c r="C3">
@@ -413,7 +413,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>JESÚS MARÍA</t>
+          <t>Jesús María</t>
         </is>
       </c>
       <c r="C4">
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>PABELLÓN DE ARTEAGA</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C5">
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>RINCÓN DE ROMOS</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>TEPEZALÁ</t>
+          <t>Tepezalá</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C8">
@@ -478,12 +478,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BAJA CALIFORNIA</t>
+          <t>Baja California</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ENSENADA</t>
+          <t>Ensenada</t>
         </is>
       </c>
       <c r="C9">
@@ -496,7 +496,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>MEXICALI</t>
+          <t>Mexicali</t>
         </is>
       </c>
       <c r="C10">
@@ -509,7 +509,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>TECATE</t>
+          <t>Tecate</t>
         </is>
       </c>
       <c r="C11">
@@ -522,7 +522,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>TIJUANA</t>
+          <t>Tijuana</t>
         </is>
       </c>
       <c r="C12">
@@ -535,7 +535,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C13">
@@ -548,12 +548,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BAJA CALIFORNIA SUR</t>
+          <t>Baja California Sur</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>COMONDÚ</t>
+          <t>Comondú</t>
         </is>
       </c>
       <c r="C14">
@@ -566,7 +566,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C15">
@@ -579,12 +579,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CAMPECHE</t>
+          <t>Campeche</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CALAKMUL</t>
+          <t>Calakmul</t>
         </is>
       </c>
       <c r="C16">
@@ -597,7 +597,7 @@
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>CAMPECHE</t>
+          <t>Campeche</t>
         </is>
       </c>
       <c r="C17">
@@ -610,7 +610,7 @@
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>CANDELARIA</t>
+          <t>Candelaria</t>
         </is>
       </c>
       <c r="C18">
@@ -623,7 +623,7 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>CARMEN</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="C19">
@@ -636,7 +636,7 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>CHAMPOTÓN</t>
+          <t>Champotón</t>
         </is>
       </c>
       <c r="C20">
@@ -649,7 +649,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>ESCÁRCEGA</t>
+          <t>Escárcega</t>
         </is>
       </c>
       <c r="C21">
@@ -662,7 +662,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>HECELCHAKÁN</t>
+          <t>Hecelchakán</t>
         </is>
       </c>
       <c r="C22">
@@ -675,7 +675,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>HOPELCHÉN</t>
+          <t>Hopelchén</t>
         </is>
       </c>
       <c r="C23">
@@ -688,7 +688,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C24">
@@ -701,12 +701,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CHIAPAS</t>
+          <t>Chiapas</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AMATÁN</t>
+          <t>Amatán</t>
         </is>
       </c>
       <c r="C25">
@@ -719,7 +719,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>COMITÁN DE DOMÍNGUEZ</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C26">
@@ -732,7 +732,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>FRONTERA COMALAPA</t>
+          <t>Frontera Comalapa</t>
         </is>
       </c>
       <c r="C27">
@@ -745,7 +745,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>HUEHUETÁN</t>
+          <t>Huehuetán</t>
         </is>
       </c>
       <c r="C28">
@@ -758,7 +758,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>IXTAPA</t>
+          <t>Ixtapa</t>
         </is>
       </c>
       <c r="C29">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>LAS MARGARITAS</t>
+          <t>Las Margaritas</t>
         </is>
       </c>
       <c r="C30">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>MAPASTEPEC</t>
+          <t>Mapastepec</t>
         </is>
       </c>
       <c r="C31">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>MOTOZINTLA</t>
+          <t>Motozintla</t>
         </is>
       </c>
       <c r="C32">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>OCOSINGO</t>
+          <t>Ocosingo</t>
         </is>
       </c>
       <c r="C33">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>OCOTEPEC</t>
+          <t>Ocotepec</t>
         </is>
       </c>
       <c r="C34">
@@ -836,7 +836,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>SALTO DE AGUA</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C35">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIMOJOVEL</t>
+          <t>Simojovel</t>
         </is>
       </c>
       <c r="C36">
@@ -862,7 +862,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>SOCOLTENANGO</t>
+          <t>Socoltenango</t>
         </is>
       </c>
       <c r="C37">
@@ -875,7 +875,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>TAPACHULA</t>
+          <t>Tapachula</t>
         </is>
       </c>
       <c r="C38">
@@ -888,7 +888,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>TECPATÁN</t>
+          <t>Tecpatán</t>
         </is>
       </c>
       <c r="C39">
@@ -901,7 +901,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>TUXTLA GUTIÉRREZ</t>
+          <t>Tuxtla Gutiérrez</t>
         </is>
       </c>
       <c r="C40">
@@ -914,7 +914,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>TUZANTÁN</t>
+          <t>Tuzantán</t>
         </is>
       </c>
       <c r="C41">
@@ -927,7 +927,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>VILLA CORZO</t>
+          <t>Villa Corzo</t>
         </is>
       </c>
       <c r="C42">
@@ -940,7 +940,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>VILLAFLORES</t>
+          <t>Villaflores</t>
         </is>
       </c>
       <c r="C43">
@@ -953,7 +953,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C44">
@@ -966,12 +966,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>AHUMADA</t>
+          <t>Ahumada</t>
         </is>
       </c>
       <c r="C45">
@@ -984,7 +984,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>ALDAMA</t>
+          <t>Aldama</t>
         </is>
       </c>
       <c r="C46">
@@ -997,7 +997,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>ALLENDE</t>
+          <t>Allende</t>
         </is>
       </c>
       <c r="C47">
@@ -1010,7 +1010,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>ASCENSIÓN</t>
+          <t>Ascensión</t>
         </is>
       </c>
       <c r="C48">
@@ -1023,7 +1023,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>BUENAVENTURA</t>
+          <t>Buenaventura</t>
         </is>
       </c>
       <c r="C49">
@@ -1036,7 +1036,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>CAMARGO</t>
+          <t>Camargo</t>
         </is>
       </c>
       <c r="C50">
@@ -1049,7 +1049,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>CASAS GRANDES</t>
+          <t>Casas Grandes</t>
         </is>
       </c>
       <c r="C51">
@@ -1062,7 +1062,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="C52">
@@ -1075,7 +1075,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>CUAUHTÉMOC</t>
+          <t>Cuauhtémoc</t>
         </is>
       </c>
       <c r="C53">
@@ -1088,7 +1088,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>DELICIAS</t>
+          <t>Delicias</t>
         </is>
       </c>
       <c r="C54">
@@ -1101,7 +1101,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>DR. BELISARIO DOMÍNGUEZ</t>
+          <t>Dr. Belisario Domínguez</t>
         </is>
       </c>
       <c r="C55">
@@ -1114,7 +1114,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>EL TULE</t>
+          <t>El Tule</t>
         </is>
       </c>
       <c r="C56">
@@ -1127,7 +1127,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>GUAZAPARES</t>
+          <t>Guazapares</t>
         </is>
       </c>
       <c r="C57">
@@ -1140,7 +1140,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>GUERRERO</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="C58">
@@ -1153,7 +1153,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>GÓMEZ FARÍAS</t>
+          <t>Gómez Farías</t>
         </is>
       </c>
       <c r="C59">
@@ -1166,7 +1166,7 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>HIDALGO DEL PARRAL</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C60">
@@ -1179,7 +1179,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>HUEJOTITÁN</t>
+          <t>Huejotitán</t>
         </is>
       </c>
       <c r="C61">
@@ -1192,7 +1192,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>IGNACIO ZARAGOZA</t>
+          <t>Ignacio Zaragoza</t>
         </is>
       </c>
       <c r="C62">
@@ -1205,7 +1205,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>JIMÉNEZ</t>
+          <t>Jiménez</t>
         </is>
       </c>
       <c r="C63">
@@ -1218,7 +1218,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>JUÁREZ</t>
+          <t>Juárez</t>
         </is>
       </c>
       <c r="C64">
@@ -1231,7 +1231,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>LA CRUZ</t>
+          <t>La Cruz</t>
         </is>
       </c>
       <c r="C65">
@@ -1244,7 +1244,7 @@
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>MADERA</t>
+          <t>Madera</t>
         </is>
       </c>
       <c r="C66">
@@ -1257,7 +1257,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>MEOQUI</t>
+          <t>Meoqui</t>
         </is>
       </c>
       <c r="C67">
@@ -1270,7 +1270,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>NAMIQUIPA</t>
+          <t>Namiquipa</t>
         </is>
       </c>
       <c r="C68">
@@ -1283,7 +1283,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>NUEVO CASAS GRANDES</t>
+          <t>Nuevo Casas Grandes</t>
         </is>
       </c>
       <c r="C69">
@@ -1296,7 +1296,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO DEL ORO</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C70">
@@ -1309,7 +1309,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>TEMÓSACHIC</t>
+          <t>Temósachic</t>
         </is>
       </c>
       <c r="C71">
@@ -1322,7 +1322,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>URIQUE</t>
+          <t>Urique</t>
         </is>
       </c>
       <c r="C72">
@@ -1335,7 +1335,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>VALLE DE ZARAGOZA</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C73">
@@ -1348,7 +1348,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C74">
@@ -1361,12 +1361,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>CIUDAD DE MÉXICO</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>AZCAPOTZALCO</t>
+          <t>Azcapotzalco</t>
         </is>
       </c>
       <c r="C75">
@@ -1379,7 +1379,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>BENITO JUÁREZ</t>
+          <t>Benito Juárez</t>
         </is>
       </c>
       <c r="C76">
@@ -1392,7 +1392,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>COYOACÁN</t>
+          <t>Coyoacán</t>
         </is>
       </c>
       <c r="C77">
@@ -1405,7 +1405,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>CUAJIMALPA DE MORELOS</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C78">
@@ -1418,7 +1418,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>CUAUHTÉMOC</t>
+          <t>Cuauhtémoc</t>
         </is>
       </c>
       <c r="C79">
@@ -1431,7 +1431,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>GUSTAVO A. MADERO</t>
+          <t>Gustavo A. Madero</t>
         </is>
       </c>
       <c r="C80">
@@ -1444,7 +1444,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>IZTACALCO</t>
+          <t>Iztacalco</t>
         </is>
       </c>
       <c r="C81">
@@ -1457,7 +1457,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>IZTAPALAPA</t>
+          <t>Iztapalapa</t>
         </is>
       </c>
       <c r="C82">
@@ -1470,7 +1470,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>LA MAGDALENA CONTRERAS</t>
+          <t>La Magdalena Contreras</t>
         </is>
       </c>
       <c r="C83">
@@ -1483,7 +1483,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>MIGUEL HIDALGO</t>
+          <t>Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C84">
@@ -1496,7 +1496,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C85">
@@ -1509,7 +1509,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>TLALPAN</t>
+          <t>Tlalpan</t>
         </is>
       </c>
       <c r="C86">
@@ -1522,7 +1522,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>TLÁHUAC</t>
+          <t>Tláhuac</t>
         </is>
       </c>
       <c r="C87">
@@ -1535,7 +1535,7 @@
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>VENUSTIANO CARRANZA</t>
+          <t>Venustiano Carranza</t>
         </is>
       </c>
       <c r="C88">
@@ -1548,7 +1548,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>ÁLVARO OBREGÓN</t>
+          <t>Álvaro Obregón</t>
         </is>
       </c>
       <c r="C89">
@@ -1561,7 +1561,7 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C90">
@@ -1574,12 +1574,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>COAHUILA DE ZARAGOZA</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ACUÑA</t>
+          <t>Acuña</t>
         </is>
       </c>
       <c r="C91">
@@ -1592,7 +1592,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>FRANCISCO I. MADERO</t>
+          <t>Francisco I. Madero</t>
         </is>
       </c>
       <c r="C92">
@@ -1605,7 +1605,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>FRONTERA</t>
+          <t>Frontera</t>
         </is>
       </c>
       <c r="C93">
@@ -1618,7 +1618,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>GENERAL CEPEDA</t>
+          <t>General Cepeda</t>
         </is>
       </c>
       <c r="C94">
@@ -1631,7 +1631,7 @@
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>MATAMOROS</t>
+          <t>Matamoros</t>
         </is>
       </c>
       <c r="C95">
@@ -1644,7 +1644,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>MONCLOVA</t>
+          <t>Monclova</t>
         </is>
       </c>
       <c r="C96">
@@ -1657,7 +1657,7 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>SALTILLO</t>
+          <t>Saltillo</t>
         </is>
       </c>
       <c r="C97">
@@ -1670,7 +1670,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>SAN PEDRO</t>
+          <t>San Pedro</t>
         </is>
       </c>
       <c r="C98">
@@ -1683,7 +1683,7 @@
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>TORREÓN</t>
+          <t>Torreón</t>
         </is>
       </c>
       <c r="C99">
@@ -1696,7 +1696,7 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>ZARAGOZA</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="C100">
@@ -1709,7 +1709,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C101">
@@ -1722,12 +1722,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>COLIMA</t>
+          <t>Colima</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>COLIMA</t>
+          <t>Colima</t>
         </is>
       </c>
       <c r="C102">
@@ -1740,7 +1740,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>MANZANILLO</t>
+          <t>Manzanillo</t>
         </is>
       </c>
       <c r="C103">
@@ -1753,7 +1753,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>TECOMÁN</t>
+          <t>Tecomán</t>
         </is>
       </c>
       <c r="C104">
@@ -1766,7 +1766,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C105">
@@ -1779,12 +1779,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>DURANGO</t>
+          <t>Durango</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CANATLÁN</t>
+          <t>Canatlán</t>
         </is>
       </c>
       <c r="C106">
@@ -1797,7 +1797,7 @@
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>CANELAS</t>
+          <t>Canelas</t>
         </is>
       </c>
       <c r="C107">
@@ -1810,7 +1810,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>CUENCAMÉ</t>
+          <t>Cuencamé</t>
         </is>
       </c>
       <c r="C108">
@@ -1823,7 +1823,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>DURANGO</t>
+          <t>Durango</t>
         </is>
       </c>
       <c r="C109">
@@ -1836,7 +1836,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>GENERAL SIMÓN BOLÍVAR</t>
+          <t>General Simón Bolívar</t>
         </is>
       </c>
       <c r="C110">
@@ -1849,7 +1849,7 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>GUADALUPE VICTORIA</t>
+          <t>Guadalupe Victoria</t>
         </is>
       </c>
       <c r="C111">
@@ -1862,7 +1862,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>GUANACEVÍ</t>
+          <t>Guanaceví</t>
         </is>
       </c>
       <c r="C112">
@@ -1875,7 +1875,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="C113">
@@ -1888,7 +1888,7 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>LERDO</t>
+          <t>Lerdo</t>
         </is>
       </c>
       <c r="C114">
@@ -1901,7 +1901,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>MAPIMÍ</t>
+          <t>Mapimí</t>
         </is>
       </c>
       <c r="C115">
@@ -1914,7 +1914,7 @@
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>MEZQUITAL</t>
+          <t>Mezquital</t>
         </is>
       </c>
       <c r="C116">
@@ -1927,7 +1927,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>NAZAS</t>
+          <t>Nazas</t>
         </is>
       </c>
       <c r="C117">
@@ -1940,7 +1940,7 @@
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>NOMBRE DE DIOS</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C118">
@@ -1953,7 +1953,7 @@
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>OCAMPO</t>
+          <t>Ocampo</t>
         </is>
       </c>
       <c r="C119">
@@ -1966,7 +1966,7 @@
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>PEÑÓN BLANCO</t>
+          <t>Peñón Blanco</t>
         </is>
       </c>
       <c r="C120">
@@ -1979,7 +1979,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>POANAS</t>
+          <t>Poanas</t>
         </is>
       </c>
       <c r="C121">
@@ -1992,7 +1992,7 @@
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>RODEO</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="C122">
@@ -2005,7 +2005,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>SANTA CLARA</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="C123">
@@ -2018,7 +2018,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>SANTIAGO PAPASQUIARO</t>
+          <t>Santiago Papasquiaro</t>
         </is>
       </c>
       <c r="C124">
@@ -2031,7 +2031,7 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>TEPEHUANES</t>
+          <t>Tepehuanes</t>
         </is>
       </c>
       <c r="C125">
@@ -2044,7 +2044,7 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>TLAHUALILO</t>
+          <t>Tlahualilo</t>
         </is>
       </c>
       <c r="C126">
@@ -2057,7 +2057,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>TOPIA</t>
+          <t>Topia</t>
         </is>
       </c>
       <c r="C127">
@@ -2070,7 +2070,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>VICENTE GUERRERO</t>
+          <t>Vicente Guerrero</t>
         </is>
       </c>
       <c r="C128">
@@ -2083,7 +2083,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C129">
@@ -2096,12 +2096,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ESTADO DE MÉXICO</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ACULCO</t>
+          <t>Aculco</t>
         </is>
       </c>
       <c r="C130">
@@ -2114,7 +2114,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>ALMOLOYA DE JUÁREZ</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C131">
@@ -2127,7 +2127,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>AMANALCO</t>
+          <t>Amanalco</t>
         </is>
       </c>
       <c r="C132">
@@ -2140,7 +2140,7 @@
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
-          <t>AMATEPEC</t>
+          <t>Amatepec</t>
         </is>
       </c>
       <c r="C133">
@@ -2153,7 +2153,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>ATENCO</t>
+          <t>Atenco</t>
         </is>
       </c>
       <c r="C134">
@@ -2166,7 +2166,7 @@
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>CHALCO</t>
+          <t>Chalco</t>
         </is>
       </c>
       <c r="C135">
@@ -2179,7 +2179,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>CHICOLOAPAN</t>
+          <t>Chicoloapan</t>
         </is>
       </c>
       <c r="C136">
@@ -2192,7 +2192,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>CHIMALHUACÁN</t>
+          <t>Chimalhuacán</t>
         </is>
       </c>
       <c r="C137">
@@ -2205,7 +2205,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>COACALCO DE BERRIOZÁBAL</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C138">
@@ -2218,7 +2218,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>COATEPEC HARINAS</t>
+          <t>Coatepec Harinas</t>
         </is>
       </c>
       <c r="C139">
@@ -2231,7 +2231,7 @@
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>DONATO GUERRA</t>
+          <t>Donato Guerra</t>
         </is>
       </c>
       <c r="C140">
@@ -2244,7 +2244,7 @@
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>ECATEPEC DE MORELOS</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C141">
@@ -2257,7 +2257,7 @@
     <row r="142">
       <c r="B142" t="inlineStr">
         <is>
-          <t>EL ORO</t>
+          <t>El Oro</t>
         </is>
       </c>
       <c r="C142">
@@ -2270,7 +2270,7 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>IXTAPAN DE LA SAL</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C143">
@@ -2283,7 +2283,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>IXTLAHUACA</t>
+          <t>Ixtlahuaca</t>
         </is>
       </c>
       <c r="C144">
@@ -2296,7 +2296,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>JOQUICINGO</t>
+          <t>Joquicingo</t>
         </is>
       </c>
       <c r="C145">
@@ -2309,7 +2309,7 @@
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>LA PAZ</t>
+          <t>La Paz</t>
         </is>
       </c>
       <c r="C146">
@@ -2322,7 +2322,7 @@
     <row r="147">
       <c r="B147" t="inlineStr">
         <is>
-          <t>LERMA</t>
+          <t>Lerma</t>
         </is>
       </c>
       <c r="C147">
@@ -2335,7 +2335,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>NAUCALPAN DE JUÁREZ</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C148">
@@ -2348,7 +2348,7 @@
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>NEZAHUALCÓYOTL</t>
+          <t>Nezahualcóyotl</t>
         </is>
       </c>
       <c r="C149">
@@ -2361,7 +2361,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>NICOLÁS ROMERO</t>
+          <t>Nicolás Romero</t>
         </is>
       </c>
       <c r="C150">
@@ -2374,7 +2374,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>OZUMBA</t>
+          <t>Ozumba</t>
         </is>
       </c>
       <c r="C151">
@@ -2387,7 +2387,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>SAN FELIPE DEL PROGRESO</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C152">
@@ -2400,7 +2400,7 @@
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>SAN JOSÉ DEL RINCÓN</t>
+          <t>San José Del Rincón</t>
         </is>
       </c>
       <c r="C153">
@@ -2413,7 +2413,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>TEJUPILCO</t>
+          <t>Tejupilco</t>
         </is>
       </c>
       <c r="C154">
@@ -2426,7 +2426,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>TEMASCALAPA</t>
+          <t>Temascalapa</t>
         </is>
       </c>
       <c r="C155">
@@ -2439,7 +2439,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>TEMASCALCINGO</t>
+          <t>Temascalcingo</t>
         </is>
       </c>
       <c r="C156">
@@ -2452,7 +2452,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>TEMOAYA</t>
+          <t>Temoaya</t>
         </is>
       </c>
       <c r="C157">
@@ -2465,7 +2465,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>TEOLOYUCAN</t>
+          <t>Teoloyucan</t>
         </is>
       </c>
       <c r="C158">
@@ -2478,7 +2478,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>TEXCOCO</t>
+          <t>Texcoco</t>
         </is>
       </c>
       <c r="C159">
@@ -2491,7 +2491,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>TLALNEPANTLA DE BAZ</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C160">
@@ -2504,7 +2504,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>TOLUCA</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="C161">
@@ -2517,7 +2517,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>TULTITLÁN</t>
+          <t>Tultitlán</t>
         </is>
       </c>
       <c r="C162">
@@ -2530,7 +2530,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>VALLE DE BRAVO</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C163">
@@ -2543,7 +2543,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>VALLE DE CHALCO SOLIDARIDAD</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C164">
@@ -2556,7 +2556,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>VILLA DEL CARBÓN</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C165">
@@ -2569,7 +2569,7 @@
     <row r="166">
       <c r="B166" t="inlineStr">
         <is>
-          <t>VILLA GUERRERO</t>
+          <t>Villa Guerrero</t>
         </is>
       </c>
       <c r="C166">
@@ -2582,7 +2582,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>ZACUALPAN</t>
+          <t>Zacualpan</t>
         </is>
       </c>
       <c r="C167">
@@ -2595,7 +2595,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C168">
@@ -2608,12 +2608,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ABASOLO</t>
+          <t>Abasolo</t>
         </is>
       </c>
       <c r="C169">
@@ -2626,7 +2626,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>ACÁMBARO</t>
+          <t>Acámbaro</t>
         </is>
       </c>
       <c r="C170">
@@ -2639,7 +2639,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>APASEO EL ALTO</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C171">
@@ -2652,7 +2652,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>CELAYA</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="C172">
@@ -2665,7 +2665,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>COMONFORT</t>
+          <t>Comonfort</t>
         </is>
       </c>
       <c r="C173">
@@ -2678,7 +2678,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>CORTAZAR</t>
+          <t>Cortazar</t>
         </is>
       </c>
       <c r="C174">
@@ -2691,7 +2691,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>DOCTOR MORA</t>
+          <t>Doctor Mora</t>
         </is>
       </c>
       <c r="C175">
@@ -2704,7 +2704,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>DOLORES HIDALGO CUNA DE LA INDEPENDENCIA NACIONAL</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C176">
@@ -2717,7 +2717,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="C177">
@@ -2730,7 +2730,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>HUANÍMARO</t>
+          <t>Huanímaro</t>
         </is>
       </c>
       <c r="C178">
@@ -2743,7 +2743,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>IRAPUATO</t>
+          <t>Irapuato</t>
         </is>
       </c>
       <c r="C179">
@@ -2756,7 +2756,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>JARAL DEL PROGRESO</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C180">
@@ -2769,7 +2769,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>JERÉCUARO</t>
+          <t>Jerécuaro</t>
         </is>
       </c>
       <c r="C181">
@@ -2782,7 +2782,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>LEÓN</t>
+          <t>León</t>
         </is>
       </c>
       <c r="C182">
@@ -2795,7 +2795,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>MOROLEÓN</t>
+          <t>Moroleón</t>
         </is>
       </c>
       <c r="C183">
@@ -2808,7 +2808,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>PURÍSIMA DEL RINCÓN</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C184">
@@ -2821,7 +2821,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>PÉNJAMO</t>
+          <t>Pénjamo</t>
         </is>
       </c>
       <c r="C185">
@@ -2834,7 +2834,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>ROMITA</t>
+          <t>Romita</t>
         </is>
       </c>
       <c r="C186">
@@ -2847,7 +2847,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>SALAMANCA</t>
+          <t>Salamanca</t>
         </is>
       </c>
       <c r="C187">
@@ -2860,7 +2860,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>SALVATIERRA</t>
+          <t>Salvatierra</t>
         </is>
       </c>
       <c r="C188">
@@ -2873,7 +2873,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>SAN FELIPE</t>
+          <t>San Felipe</t>
         </is>
       </c>
       <c r="C189">
@@ -2886,7 +2886,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO DEL RINCÓN</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C190">
@@ -2899,7 +2899,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>SAN JOSÉ ITURBIDE</t>
+          <t>San José Iturbide</t>
         </is>
       </c>
       <c r="C191">
@@ -2912,7 +2912,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>SAN LUIS DE LA PAZ</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C192">
@@ -2925,7 +2925,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>SAN MIGUEL DE ALLENDE</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C193">
@@ -2938,7 +2938,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>SANTA CRUZ DE JUVENTINO ROSAS</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C194">
@@ -2951,7 +2951,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>TARIMORO</t>
+          <t>Tarimoro</t>
         </is>
       </c>
       <c r="C195">
@@ -2964,7 +2964,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>URIANGATO</t>
+          <t>Uriangato</t>
         </is>
       </c>
       <c r="C196">
@@ -2977,7 +2977,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>VALLE DE SANTIAGO</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C197">
@@ -2990,7 +2990,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>VILLAGRÁN</t>
+          <t>Villagrán</t>
         </is>
       </c>
       <c r="C198">
@@ -3003,7 +3003,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>YURIRIA</t>
+          <t>Yuriria</t>
         </is>
       </c>
       <c r="C199">
@@ -3016,7 +3016,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C200">
@@ -3029,12 +3029,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>GUERRERO</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>ACAPULCO DE JUÁREZ</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C201">
@@ -3047,7 +3047,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>AJUCHITLÁN DEL PROGRESO</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C202">
@@ -3060,7 +3060,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>APAXTLA</t>
+          <t>Apaxtla</t>
         </is>
       </c>
       <c r="C203">
@@ -3073,7 +3073,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>ARCELIA</t>
+          <t>Arcelia</t>
         </is>
       </c>
       <c r="C204">
@@ -3086,7 +3086,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>ATOYAC DE ÁLVAREZ</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C205">
@@ -3099,7 +3099,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>AYUTLA DE LOS LIBRES</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C206">
@@ -3112,7 +3112,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>AZOYÚ</t>
+          <t>Azoyú</t>
         </is>
       </c>
       <c r="C207">
@@ -3125,7 +3125,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>CHILAPA DE ÁLVAREZ</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C208">
@@ -3138,7 +3138,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>CHILPANCINGO DE LOS BRAVO</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C209">
@@ -3151,7 +3151,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>COCULA</t>
+          <t>Cocula</t>
         </is>
       </c>
       <c r="C210">
@@ -3164,7 +3164,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>COPALA</t>
+          <t>Copala</t>
         </is>
       </c>
       <c r="C211">
@@ -3177,7 +3177,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>COYUCA DE BENÍTEZ</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C212">
@@ -3190,7 +3190,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>COYUCA DE CATALÁN</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C213">
@@ -3203,7 +3203,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>CUAJINICUILAPA</t>
+          <t>Cuajinicuilapa</t>
         </is>
       </c>
       <c r="C214">
@@ -3216,7 +3216,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>CUALÁC</t>
+          <t>Cualác</t>
         </is>
       </c>
       <c r="C215">
@@ -3229,7 +3229,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>CUAUTEPEC</t>
+          <t>Cuautepec</t>
         </is>
       </c>
       <c r="C216">
@@ -3242,7 +3242,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>CUETZALA DEL PROGRESO</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C217">
@@ -3255,7 +3255,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>CUTZAMALA DE PINZÓN</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C218">
@@ -3268,7 +3268,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>FLORENCIO VILLARREAL</t>
+          <t>Florencio Villarreal</t>
         </is>
       </c>
       <c r="C219">
@@ -3281,7 +3281,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>GENERAL CANUTO A. NERI</t>
+          <t>General Canuto A. Neri</t>
         </is>
       </c>
       <c r="C220">
@@ -3294,7 +3294,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>GENERAL HELIODORO CASTILLO</t>
+          <t>General Heliodoro Castillo</t>
         </is>
       </c>
       <c r="C221">
@@ -3307,7 +3307,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>HUITZUCO DE LOS FIGUEROA</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C222">
@@ -3320,7 +3320,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>IGUALA DE LA INDEPENDENCIA</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C223">
@@ -3333,7 +3333,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>JUAN R. ESCUDERO</t>
+          <t>Juan R. Escudero</t>
         </is>
       </c>
       <c r="C224">
@@ -3346,7 +3346,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>LEONARDO BRAVO</t>
+          <t>Leonardo Bravo</t>
         </is>
       </c>
       <c r="C225">
@@ -3359,7 +3359,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>MALINALTEPEC</t>
+          <t>Malinaltepec</t>
         </is>
       </c>
       <c r="C226">
@@ -3372,7 +3372,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>MOCHITLÁN</t>
+          <t>Mochitlán</t>
         </is>
       </c>
       <c r="C227">
@@ -3385,7 +3385,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>OMETEPEC</t>
+          <t>Ometepec</t>
         </is>
       </c>
       <c r="C228">
@@ -3398,7 +3398,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>PETATLÁN</t>
+          <t>Petatlán</t>
         </is>
       </c>
       <c r="C229">
@@ -3411,7 +3411,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>QUECHULTENANGO</t>
+          <t>Quechultenango</t>
         </is>
       </c>
       <c r="C230">
@@ -3424,7 +3424,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>SAN LUIS ACATLÁN</t>
+          <t>San Luis Acatlán</t>
         </is>
       </c>
       <c r="C231">
@@ -3437,7 +3437,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>SAN MARCOS</t>
+          <t>San Marcos</t>
         </is>
       </c>
       <c r="C232">
@@ -3450,7 +3450,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>SAN MIGUEL TOTOLAPAN</t>
+          <t>San Miguel Totolapan</t>
         </is>
       </c>
       <c r="C233">
@@ -3463,7 +3463,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>TECOANAPA</t>
+          <t>Tecoanapa</t>
         </is>
       </c>
       <c r="C234">
@@ -3476,7 +3476,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>TELOLOAPAN</t>
+          <t>Teloloapan</t>
         </is>
       </c>
       <c r="C235">
@@ -3489,7 +3489,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>TIXTLA DE GUERRERO</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C236">
@@ -3502,7 +3502,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>TLACOACHISTLAHUACA</t>
+          <t>Tlacoachistlahuaca</t>
         </is>
       </c>
       <c r="C237">
@@ -3515,7 +3515,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>TLALCHAPA</t>
+          <t>Tlalchapa</t>
         </is>
       </c>
       <c r="C238">
@@ -3528,7 +3528,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>TLAPA DE COMONFORT</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C239">
@@ -3541,7 +3541,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>TÉCPAN DE GALEANA</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C240">
@@ -3554,7 +3554,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>ZIHUATANEJO DE AZUETA</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C241">
@@ -3567,7 +3567,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C242">
@@ -3580,12 +3580,12 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>ACAXOCHITLÁN</t>
+          <t>Acaxochitlán</t>
         </is>
       </c>
       <c r="C243">
@@ -3598,7 +3598,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>ACTOPAN</t>
+          <t>Actopan</t>
         </is>
       </c>
       <c r="C244">
@@ -3611,7 +3611,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>ATOTONILCO DE TULA</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C245">
@@ -3624,7 +3624,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>ATOTONILCO EL GRANDE</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C246">
@@ -3637,7 +3637,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>CUAUTEPEC DE HINOJOSA</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C247">
@@ -3650,7 +3650,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>EPAZOYUCAN</t>
+          <t>Epazoyucan</t>
         </is>
       </c>
       <c r="C248">
@@ -3663,7 +3663,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>FRANCISCO I. MADERO</t>
+          <t>Francisco I. Madero</t>
         </is>
       </c>
       <c r="C249">
@@ -3676,7 +3676,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>HUASCA DE OCAMPO</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C250">
@@ -3689,7 +3689,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>IXMIQUILPAN</t>
+          <t>Ixmiquilpan</t>
         </is>
       </c>
       <c r="C251">
@@ -3702,7 +3702,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>METEPEC</t>
+          <t>Metepec</t>
         </is>
       </c>
       <c r="C252">
@@ -3715,7 +3715,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>MIXQUIAHUALA DE JUÁREZ</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C253">
@@ -3728,7 +3728,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>NICOLÁS FLORES</t>
+          <t>Nicolás Flores</t>
         </is>
       </c>
       <c r="C254">
@@ -3741,7 +3741,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>PACHUCA DE SOTO</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C255">
@@ -3754,7 +3754,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>PROGRESO DE OBREGÓN</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C256">
@@ -3767,7 +3767,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>TASQUILLO</t>
+          <t>Tasquillo</t>
         </is>
       </c>
       <c r="C257">
@@ -3780,7 +3780,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>TENANGO DE DORIA</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C258">
@@ -3793,7 +3793,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>TEZONTEPEC DE ALDAMA</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C259">
@@ -3806,7 +3806,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>TIZAYUCA</t>
+          <t>Tizayuca</t>
         </is>
       </c>
       <c r="C260">
@@ -3819,7 +3819,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>TULANCINGO DE BRAVO</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C261">
@@ -3832,7 +3832,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>XOCHIATIPAN</t>
+          <t>Xochiatipan</t>
         </is>
       </c>
       <c r="C262">
@@ -3845,7 +3845,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C263">
@@ -3858,12 +3858,12 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>JALISCO</t>
+          <t>Jalisco</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>ACATIC</t>
+          <t>Acatic</t>
         </is>
       </c>
       <c r="C264">
@@ -3876,7 +3876,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>AMECA</t>
+          <t>Ameca</t>
         </is>
       </c>
       <c r="C265">
@@ -3889,7 +3889,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>ATENGO</t>
+          <t>Atengo</t>
         </is>
       </c>
       <c r="C266">
@@ -3902,7 +3902,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>ATOTONILCO EL ALTO</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C267">
@@ -3915,7 +3915,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>AUTLÁN DE NAVARRO</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C268">
@@ -3928,7 +3928,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>AYOTLÁN</t>
+          <t>Ayotlán</t>
         </is>
       </c>
       <c r="C269">
@@ -3941,7 +3941,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>AYUTLA</t>
+          <t>Ayutla</t>
         </is>
       </c>
       <c r="C270">
@@ -3954,7 +3954,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>CABO CORRIENTES</t>
+          <t>Cabo Corrientes</t>
         </is>
       </c>
       <c r="C271">
@@ -3967,7 +3967,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>CASIMIRO CASTILLO</t>
+          <t>Casimiro Castillo</t>
         </is>
       </c>
       <c r="C272">
@@ -3980,7 +3980,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>CHAPALA</t>
+          <t>Chapala</t>
         </is>
       </c>
       <c r="C273">
@@ -3993,7 +3993,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>CHIMALTITÁN</t>
+          <t>Chimaltitán</t>
         </is>
       </c>
       <c r="C274">
@@ -4006,7 +4006,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>CIHUATLÁN</t>
+          <t>Cihuatlán</t>
         </is>
       </c>
       <c r="C275">
@@ -4019,7 +4019,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>COCULA</t>
+          <t>Cocula</t>
         </is>
       </c>
       <c r="C276">
@@ -4032,7 +4032,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>COLOTLÁN</t>
+          <t>Colotlán</t>
         </is>
       </c>
       <c r="C277">
@@ -4045,7 +4045,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>CONCEPCIÓN DE BUENOS AIRES</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C278">
@@ -4058,7 +4058,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>CUAUTITLÁN DE GARCÍA BARRAGÁN</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C279">
@@ -4071,7 +4071,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>CUAUTLA</t>
+          <t>Cuautla</t>
         </is>
       </c>
       <c r="C280">
@@ -4084,7 +4084,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>DEGOLLADO</t>
+          <t>Degollado</t>
         </is>
       </c>
       <c r="C281">
@@ -4097,7 +4097,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>EL GRULLO</t>
+          <t>El Grullo</t>
         </is>
       </c>
       <c r="C282">
@@ -4110,7 +4110,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>ENCARNACIÓN DE DÍAZ</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C283">
@@ -4123,7 +4123,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>GUADALAJARA</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="C284">
@@ -4136,7 +4136,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>JESÚS MARÍA</t>
+          <t>Jesús María</t>
         </is>
       </c>
       <c r="C285">
@@ -4149,7 +4149,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>JILOTLÁN DE LOS DOLORES</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C286">
@@ -4162,7 +4162,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>JOCOTEPEC</t>
+          <t>Jocotepec</t>
         </is>
       </c>
       <c r="C287">
@@ -4175,7 +4175,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>JUANACATLÁN</t>
+          <t>Juanacatlán</t>
         </is>
       </c>
       <c r="C288">
@@ -4188,7 +4188,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>LA BARCA</t>
+          <t>La Barca</t>
         </is>
       </c>
       <c r="C289">
@@ -4201,7 +4201,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>LA MANZANILLA DE LA PAZ</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C290">
@@ -4214,7 +4214,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>LAGOS DE MORENO</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C291">
@@ -4227,7 +4227,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>MAZAMITLA</t>
+          <t>Mazamitla</t>
         </is>
       </c>
       <c r="C292">
@@ -4240,7 +4240,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>MEZQUITIC</t>
+          <t>Mezquitic</t>
         </is>
       </c>
       <c r="C293">
@@ -4253,7 +4253,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>OJUELOS DE JALISCO</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C294">
@@ -4266,7 +4266,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>PUERTO VALLARTA</t>
+          <t>Puerto Vallarta</t>
         </is>
       </c>
       <c r="C295">
@@ -4279,7 +4279,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>SAN CRISTÓBAL DE LA BARRANCA</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C296">
@@ -4292,7 +4292,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>SAN DIEGO DE ALEJANDRÍA</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C297">
@@ -4305,7 +4305,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>SAN JULIÁN</t>
+          <t>San Julián</t>
         </is>
       </c>
       <c r="C298">
@@ -4318,7 +4318,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>SAN MARTÍN DE BOLAÑOS</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C299">
@@ -4331,7 +4331,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>SAN MARTÍN HIDALGO</t>
+          <t>San Martín Hidalgo</t>
         </is>
       </c>
       <c r="C300">
@@ -4344,7 +4344,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>SAN MIGUEL EL ALTO</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C301">
@@ -4357,7 +4357,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>SAN PEDRO TLAQUEPAQUE</t>
+          <t>San Pedro Tlaquepaque</t>
         </is>
       </c>
       <c r="C302">
@@ -4370,7 +4370,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>TALPA DE ALLENDE</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C303">
@@ -4383,7 +4383,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>TAMAZULA DE GORDIANO</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C304">
@@ -4396,7 +4396,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>TECALITLÁN</t>
+          <t>Tecalitlán</t>
         </is>
       </c>
       <c r="C305">
@@ -4409,7 +4409,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>TECOLOTLÁN</t>
+          <t>Tecolotlán</t>
         </is>
       </c>
       <c r="C306">
@@ -4422,7 +4422,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>TENAMAXTLÁN</t>
+          <t>Tenamaxtlán</t>
         </is>
       </c>
       <c r="C307">
@@ -4435,7 +4435,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>TEPATITLÁN DE MORELOS</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C308">
@@ -4448,7 +4448,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>TIZAPÁN EL ALTO</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C309">
@@ -4461,7 +4461,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>TONALÁ</t>
+          <t>Tonalá</t>
         </is>
       </c>
       <c r="C310">
@@ -4474,7 +4474,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>TOTOTLÁN</t>
+          <t>Tototlán</t>
         </is>
       </c>
       <c r="C311">
@@ -4487,7 +4487,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>TUXCUECA</t>
+          <t>Tuxcueca</t>
         </is>
       </c>
       <c r="C312">
@@ -4500,7 +4500,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>UNIÓN DE SAN ANTONIO</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C313">
@@ -4513,7 +4513,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>UNIÓN DE TULA</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C314">
@@ -4526,7 +4526,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>VILLA PURIFICACIÓN</t>
+          <t>Villa Purificación</t>
         </is>
       </c>
       <c r="C315">
@@ -4539,7 +4539,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>ZAPOPAN</t>
+          <t>Zapopan</t>
         </is>
       </c>
       <c r="C316">
@@ -4552,7 +4552,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>ZAPOTLANEJO</t>
+          <t>Zapotlanejo</t>
         </is>
       </c>
       <c r="C317">
@@ -4565,7 +4565,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>ZAPOTLÁN EL GRANDE</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C318">
@@ -4578,7 +4578,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C319">
@@ -4591,12 +4591,12 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>MICHOACÁN DE OCAMPO</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>AGUILILLA</t>
+          <t>Aguililla</t>
         </is>
       </c>
       <c r="C320">
@@ -4609,7 +4609,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>ANGAMACUTIRO</t>
+          <t>Angamacutiro</t>
         </is>
       </c>
       <c r="C321">
@@ -4622,7 +4622,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>APATZINGÁN</t>
+          <t>Apatzingán</t>
         </is>
       </c>
       <c r="C322">
@@ -4635,7 +4635,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>AQUILA</t>
+          <t>Aquila</t>
         </is>
       </c>
       <c r="C323">
@@ -4648,7 +4648,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>ARIO</t>
+          <t>Ario</t>
         </is>
       </c>
       <c r="C324">
@@ -4661,7 +4661,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>ARTEAGA</t>
+          <t>Arteaga</t>
         </is>
       </c>
       <c r="C325">
@@ -4674,7 +4674,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>CARÁCUARO</t>
+          <t>Carácuaro</t>
         </is>
       </c>
       <c r="C326">
@@ -4687,7 +4687,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>CHARO</t>
+          <t>Charo</t>
         </is>
       </c>
       <c r="C327">
@@ -4700,7 +4700,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>CHUCÁNDIRO</t>
+          <t>Chucándiro</t>
         </is>
       </c>
       <c r="C328">
@@ -4713,7 +4713,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>CHURUMUCO</t>
+          <t>Churumuco</t>
         </is>
       </c>
       <c r="C329">
@@ -4726,7 +4726,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>COAHUAYANA</t>
+          <t>Coahuayana</t>
         </is>
       </c>
       <c r="C330">
@@ -4739,7 +4739,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>COALCOMÁN DE VÁZQUEZ PALLARES</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C331">
@@ -4752,7 +4752,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>CUITZEO</t>
+          <t>Cuitzeo</t>
         </is>
       </c>
       <c r="C332">
@@ -4765,7 +4765,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>EPITACIO HUERTA</t>
+          <t>Epitacio Huerta</t>
         </is>
       </c>
       <c r="C333">
@@ -4778,7 +4778,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="C334">
@@ -4791,7 +4791,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>HUETAMO</t>
+          <t>Huetamo</t>
         </is>
       </c>
       <c r="C335">
@@ -4804,7 +4804,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>IXTLÁN</t>
+          <t>Ixtlán</t>
         </is>
       </c>
       <c r="C336">
@@ -4817,7 +4817,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>JIMÉNEZ</t>
+          <t>Jiménez</t>
         </is>
       </c>
       <c r="C337">
@@ -4830,7 +4830,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>JOSÉ SIXTO VERDUZCO</t>
+          <t>José Sixto Verduzco</t>
         </is>
       </c>
       <c r="C338">
@@ -4843,7 +4843,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>JUNGAPEO</t>
+          <t>Jungapeo</t>
         </is>
       </c>
       <c r="C339">
@@ -4856,7 +4856,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>LA HUACANA</t>
+          <t>La Huacana</t>
         </is>
       </c>
       <c r="C340">
@@ -4869,7 +4869,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>LA PIEDAD</t>
+          <t>La Piedad</t>
         </is>
       </c>
       <c r="C341">
@@ -4882,7 +4882,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>LAGUNILLAS</t>
+          <t>Lagunillas</t>
         </is>
       </c>
       <c r="C342">
@@ -4895,7 +4895,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>LOS REYES</t>
+          <t>Los Reyes</t>
         </is>
       </c>
       <c r="C343">
@@ -4908,7 +4908,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>LÁZARO CÁRDENAS</t>
+          <t>Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C344">
@@ -4921,7 +4921,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>MARAVATÍO</t>
+          <t>Maravatío</t>
         </is>
       </c>
       <c r="C345">
@@ -4934,7 +4934,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>MORELIA</t>
+          <t>Morelia</t>
         </is>
       </c>
       <c r="C346">
@@ -4947,7 +4947,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>MORELOS</t>
+          <t>Morelos</t>
         </is>
       </c>
       <c r="C347">
@@ -4960,7 +4960,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>MÚGICA</t>
+          <t>Múgica</t>
         </is>
       </c>
       <c r="C348">
@@ -4973,7 +4973,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>NAHUATZEN</t>
+          <t>Nahuatzen</t>
         </is>
       </c>
       <c r="C349">
@@ -4986,7 +4986,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>PAJACUARÁN</t>
+          <t>Pajacuarán</t>
         </is>
       </c>
       <c r="C350">
@@ -4999,7 +4999,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>PARACHO</t>
+          <t>Paracho</t>
         </is>
       </c>
       <c r="C351">
@@ -5012,7 +5012,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>PENJAMILLO</t>
+          <t>Penjamillo</t>
         </is>
       </c>
       <c r="C352">
@@ -5025,7 +5025,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>PERIBÁN</t>
+          <t>Peribán</t>
         </is>
       </c>
       <c r="C353">
@@ -5038,7 +5038,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>PURUÁNDIRO</t>
+          <t>Puruándiro</t>
         </is>
       </c>
       <c r="C354">
@@ -5051,7 +5051,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>PÁTZCUARO</t>
+          <t>Pátzcuaro</t>
         </is>
       </c>
       <c r="C355">
@@ -5064,7 +5064,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>QUIROGA</t>
+          <t>Quiroga</t>
         </is>
       </c>
       <c r="C356">
@@ -5077,7 +5077,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>SAHUAYO</t>
+          <t>Sahuayo</t>
         </is>
       </c>
       <c r="C357">
@@ -5090,7 +5090,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>SALVADOR ESCALANTE</t>
+          <t>Salvador Escalante</t>
         </is>
       </c>
       <c r="C358">
@@ -5103,7 +5103,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>TACÁMBARO</t>
+          <t>Tacámbaro</t>
         </is>
       </c>
       <c r="C359">
@@ -5116,7 +5116,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>TANGAMANDAPIO</t>
+          <t>Tangamandapio</t>
         </is>
       </c>
       <c r="C360">
@@ -5129,7 +5129,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>TANGANCÍCUARO</t>
+          <t>Tangancícuaro</t>
         </is>
       </c>
       <c r="C361">
@@ -5142,7 +5142,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>TANHUATO</t>
+          <t>Tanhuato</t>
         </is>
       </c>
       <c r="C362">
@@ -5155,7 +5155,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>TEPALCATEPEC</t>
+          <t>Tepalcatepec</t>
         </is>
       </c>
       <c r="C363">
@@ -5168,7 +5168,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>TIQUICHEO DE NICOLÁS ROMERO</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C364">
@@ -5181,7 +5181,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>TLALPUJAHUA</t>
+          <t>Tlalpujahua</t>
         </is>
       </c>
       <c r="C365">
@@ -5194,7 +5194,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>TUXPAN</t>
+          <t>Tuxpan</t>
         </is>
       </c>
       <c r="C366">
@@ -5207,7 +5207,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>URUAPAN</t>
+          <t>Uruapan</t>
         </is>
       </c>
       <c r="C367">
@@ -5220,7 +5220,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>VENUSTIANO CARRANZA</t>
+          <t>Venustiano Carranza</t>
         </is>
       </c>
       <c r="C368">
@@ -5233,7 +5233,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>VISTA HERMOSA</t>
+          <t>Vista Hermosa</t>
         </is>
       </c>
       <c r="C369">
@@ -5246,7 +5246,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>YURÉCUARO</t>
+          <t>Yurécuaro</t>
         </is>
       </c>
       <c r="C370">
@@ -5259,7 +5259,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>ZACAPU</t>
+          <t>Zacapu</t>
         </is>
       </c>
       <c r="C371">
@@ -5272,7 +5272,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>ZAMORA</t>
+          <t>Zamora</t>
         </is>
       </c>
       <c r="C372">
@@ -5285,7 +5285,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>ZINAPÉCUARO</t>
+          <t>Zinapécuaro</t>
         </is>
       </c>
       <c r="C373">
@@ -5298,7 +5298,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C374">
@@ -5311,12 +5311,12 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>MORELOS</t>
+          <t>Morelos</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>AXOCHIAPAN</t>
+          <t>Axochiapan</t>
         </is>
       </c>
       <c r="C375">
@@ -5329,7 +5329,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>AYALA</t>
+          <t>Ayala</t>
         </is>
       </c>
       <c r="C376">
@@ -5342,7 +5342,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>CUAUTLA</t>
+          <t>Cuautla</t>
         </is>
       </c>
       <c r="C377">
@@ -5355,7 +5355,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>CUERNAVACA</t>
+          <t>Cuernavaca</t>
         </is>
       </c>
       <c r="C378">
@@ -5368,7 +5368,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>EMILIANO ZAPATA</t>
+          <t>Emiliano Zapata</t>
         </is>
       </c>
       <c r="C379">
@@ -5381,7 +5381,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>JOJUTLA</t>
+          <t>Jojutla</t>
         </is>
       </c>
       <c r="C380">
@@ -5394,7 +5394,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>TEMIXCO</t>
+          <t>Temixco</t>
         </is>
       </c>
       <c r="C381">
@@ -5407,7 +5407,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>TLALTIZAPÁN DE ZAPATA</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C382">
@@ -5420,7 +5420,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>TLAQUILTENANGO</t>
+          <t>Tlaquiltenango</t>
         </is>
       </c>
       <c r="C383">
@@ -5433,7 +5433,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>TOTOLAPAN</t>
+          <t>Totolapan</t>
         </is>
       </c>
       <c r="C384">
@@ -5446,7 +5446,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>XOCHITEPEC</t>
+          <t>Xochitepec</t>
         </is>
       </c>
       <c r="C385">
@@ -5459,7 +5459,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>YAUTEPEC</t>
+          <t>Yautepec</t>
         </is>
       </c>
       <c r="C386">
@@ -5472,7 +5472,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>ZACATEPEC</t>
+          <t>Zacatepec</t>
         </is>
       </c>
       <c r="C387">
@@ -5485,7 +5485,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C388">
@@ -5498,12 +5498,12 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>NAYARIT</t>
+          <t>Nayarit</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>AHUACATLÁN</t>
+          <t>Ahuacatlán</t>
         </is>
       </c>
       <c r="C389">
@@ -5516,7 +5516,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>BAHÍA DE BANDERAS</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C390">
@@ -5529,7 +5529,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>COMPOSTELA</t>
+          <t>Compostela</t>
         </is>
       </c>
       <c r="C391">
@@ -5542,7 +5542,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>IXTLÁN DEL RÍO</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C392">
@@ -5555,7 +5555,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>ROSAMORADA</t>
+          <t>Rosamorada</t>
         </is>
       </c>
       <c r="C393">
@@ -5568,7 +5568,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>SAN BLAS</t>
+          <t>San Blas</t>
         </is>
       </c>
       <c r="C394">
@@ -5581,7 +5581,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>SANTIAGO IXCUINTLA</t>
+          <t>Santiago Ixcuintla</t>
         </is>
       </c>
       <c r="C395">
@@ -5594,7 +5594,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>TECUALA</t>
+          <t>Tecuala</t>
         </is>
       </c>
       <c r="C396">
@@ -5607,7 +5607,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>TEPIC</t>
+          <t>Tepic</t>
         </is>
       </c>
       <c r="C397">
@@ -5620,7 +5620,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>TUXPAN</t>
+          <t>Tuxpan</t>
         </is>
       </c>
       <c r="C398">
@@ -5633,7 +5633,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C399">
@@ -5646,12 +5646,12 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>NUEVO LEÓN</t>
+          <t>Nuevo León</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>CADEREYTA JIMÉNEZ</t>
+          <t>Cadereyta Jiménez</t>
         </is>
       </c>
       <c r="C400">
@@ -5664,7 +5664,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>CHINA</t>
+          <t>China</t>
         </is>
       </c>
       <c r="C401">
@@ -5677,7 +5677,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>GALEANA</t>
+          <t>Galeana</t>
         </is>
       </c>
       <c r="C402">
@@ -5690,7 +5690,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>MONTERREY</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="C403">
@@ -5703,7 +5703,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>SAN PEDRO GARZA GARCÍA</t>
+          <t>San Pedro Garza García</t>
         </is>
       </c>
       <c r="C404">
@@ -5716,7 +5716,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C405">
@@ -5729,12 +5729,12 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>OAXACA</t>
+          <t>Oaxaca</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>CONCEPCIÓN PÁPALO</t>
+          <t>Concepción Pápalo</t>
         </is>
       </c>
       <c r="C406">
@@ -5747,7 +5747,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>HEROICA CIUDAD DE HUAJUAPAN DE LEÓN</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C407">
@@ -5760,7 +5760,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>HUAJUAPAN DE LEÓN</t>
+          <t>Huajuapan De León</t>
         </is>
       </c>
       <c r="C408">
@@ -5773,7 +5773,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>IXPANTEPEC NIEVES</t>
+          <t>Ixpantepec Nieves</t>
         </is>
       </c>
       <c r="C409">
@@ -5786,7 +5786,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>LOMA BONITA</t>
+          <t>Loma Bonita</t>
         </is>
       </c>
       <c r="C410">
@@ -5799,7 +5799,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>MARISCALA DE JUÁREZ</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C411">
@@ -5812,7 +5812,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>MATÍAS ROMERO AVENDAÑO</t>
+          <t>Matías Romero Avendaño</t>
         </is>
       </c>
       <c r="C412">
@@ -5825,7 +5825,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>OAXACA DE JUÁREZ</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C413">
@@ -5838,7 +5838,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>OCOTLÁN DE MORELOS</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C414">
@@ -5851,7 +5851,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>SALINA CRUZ</t>
+          <t>Salina Cruz</t>
         </is>
       </c>
       <c r="C415">
@@ -5864,7 +5864,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>SAN AGUSTÍN TLACOTEPEC</t>
+          <t>San Agustín Tlacotepec</t>
         </is>
       </c>
       <c r="C416">
@@ -5877,7 +5877,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>SAN ANTONIO SINICAHUA</t>
+          <t>San Antonio Sinicahua</t>
         </is>
       </c>
       <c r="C417">
@@ -5890,7 +5890,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>SAN FELIPE JALAPA DE DÍAZ</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C418">
@@ -5903,7 +5903,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>SAN FELIPE USILA</t>
+          <t>San Felipe Usila</t>
         </is>
       </c>
       <c r="C419">
@@ -5916,7 +5916,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO TEOPAN</t>
+          <t>San Francisco Teopan</t>
         </is>
       </c>
       <c r="C420">
@@ -5929,7 +5929,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>SAN JOSÉ CHILTEPEC</t>
+          <t>San José Chiltepec</t>
         </is>
       </c>
       <c r="C421">
@@ -5942,7 +5942,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA COIXTLAHUACA</t>
+          <t>San Juan Bautista Coixtlahuaca</t>
         </is>
       </c>
       <c r="C422">
@@ -5955,7 +5955,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA LO DE SOTO</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C423">
@@ -5968,7 +5968,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA TUXTEPEC</t>
+          <t>San Juan Bautista Tuxtepec</t>
         </is>
       </c>
       <c r="C424">
@@ -5981,7 +5981,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>SAN JUAN LACHAO</t>
+          <t>San Juan Lachao</t>
         </is>
       </c>
       <c r="C425">
@@ -5994,7 +5994,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>SAN JUAN QUIOTEPEC</t>
+          <t>San Juan Quiotepec</t>
         </is>
       </c>
       <c r="C426">
@@ -6007,7 +6007,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>SAN LORENZO TEXMELÚCAN</t>
+          <t>San Lorenzo Texmelúcan</t>
         </is>
       </c>
       <c r="C427">
@@ -6020,7 +6020,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>SAN LUCAS OJITLÁN</t>
+          <t>San Lucas Ojitlán</t>
         </is>
       </c>
       <c r="C428">
@@ -6033,7 +6033,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>SAN MIGUEL AMATITLÁN</t>
+          <t>San Miguel Amatitlán</t>
         </is>
       </c>
       <c r="C429">
@@ -6046,7 +6046,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>SAN MIGUEL AMATLÁN</t>
+          <t>San Miguel Amatlán</t>
         </is>
       </c>
       <c r="C430">
@@ -6059,7 +6059,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>SAN MIGUEL EL GRANDE</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C431">
@@ -6072,7 +6072,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>SAN MIGUEL SOYALTEPEC</t>
+          <t>San Miguel Soyaltepec</t>
         </is>
       </c>
       <c r="C432">
@@ -6085,7 +6085,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>SAN MIGUEL TLACAMAMA</t>
+          <t>San Miguel Tlacamama</t>
         </is>
       </c>
       <c r="C433">
@@ -6098,7 +6098,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>SAN MIGUEL TLACOTEPEC</t>
+          <t>San Miguel Tlacotepec</t>
         </is>
       </c>
       <c r="C434">
@@ -6111,7 +6111,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>SAN NICOLÁS HIDALGO</t>
+          <t>San Nicolás Hidalgo</t>
         </is>
       </c>
       <c r="C435">
@@ -6124,7 +6124,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>SAN PABLO VILLA DE MITLA</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C436">
@@ -6137,7 +6137,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>SAN SEBASTIÁN IXCAPA</t>
+          <t>San Sebastián Ixcapa</t>
         </is>
       </c>
       <c r="C437">
@@ -6150,7 +6150,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>SANTA CATARINA JUQUILA</t>
+          <t>Santa Catarina Juquila</t>
         </is>
       </c>
       <c r="C438">
@@ -6163,7 +6163,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>SANTA CRUZ ITUNDUJIA</t>
+          <t>Santa Cruz Itundujia</t>
         </is>
       </c>
       <c r="C439">
@@ -6176,7 +6176,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>SANTA CRUZ TACACHE DE MINA</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C440">
@@ -6189,7 +6189,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>SANTA MARÍA HUAZOLOTITLÁN</t>
+          <t>Santa María Huazolotitlán</t>
         </is>
       </c>
       <c r="C441">
@@ -6202,7 +6202,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>SANTA MARÍA SOLA</t>
+          <t>Santa María Sola</t>
         </is>
       </c>
       <c r="C442">
@@ -6215,7 +6215,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>SANTIAGO APÓSTOL</t>
+          <t>Santiago Apóstol</t>
         </is>
       </c>
       <c r="C443">
@@ -6228,7 +6228,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>SANTIAGO AYUQUILILLA</t>
+          <t>Santiago Ayuquililla</t>
         </is>
       </c>
       <c r="C444">
@@ -6241,7 +6241,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>SANTIAGO HUAJOLOTITLÁN</t>
+          <t>Santiago Huajolotitlán</t>
         </is>
       </c>
       <c r="C445">
@@ -6254,7 +6254,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>SANTIAGO JAMILTEPEC</t>
+          <t>Santiago Jamiltepec</t>
         </is>
       </c>
       <c r="C446">
@@ -6267,7 +6267,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>SANTIAGO JUXTLAHUACA</t>
+          <t>Santiago Juxtlahuaca</t>
         </is>
       </c>
       <c r="C447">
@@ -6280,7 +6280,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>SANTIAGO PINOTEPA NACIONAL</t>
+          <t>Santiago Pinotepa Nacional</t>
         </is>
       </c>
       <c r="C448">
@@ -6293,7 +6293,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>SANTIAGO TAMAZOLA</t>
+          <t>Santiago Tamazola</t>
         </is>
       </c>
       <c r="C449">
@@ -6306,7 +6306,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>SANTIAGO TAPEXTLA</t>
+          <t>Santiago Tapextla</t>
         </is>
       </c>
       <c r="C450">
@@ -6319,7 +6319,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO ARMENTA</t>
+          <t>Santo Domingo Armenta</t>
         </is>
       </c>
       <c r="C451">
@@ -6332,7 +6332,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO TONALÁ</t>
+          <t>Santo Domingo Tonalá</t>
         </is>
       </c>
       <c r="C452">
@@ -6345,7 +6345,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>SANTOS REYES NOPALA</t>
+          <t>Santos Reyes Nopala</t>
         </is>
       </c>
       <c r="C453">
@@ -6358,7 +6358,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>SILACAYOÁPAM</t>
+          <t>Silacayoápam</t>
         </is>
       </c>
       <c r="C454">
@@ -6371,7 +6371,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>TANICHE</t>
+          <t>Taniche</t>
         </is>
       </c>
       <c r="C455">
@@ -6384,7 +6384,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>TLACOLULA DE MATAMOROS</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C456">
@@ -6397,7 +6397,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>VILLA DE TUTUTEPEC DE MELCHOR OCAMPO</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C457">
@@ -6410,7 +6410,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C458">
@@ -6423,12 +6423,12 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>ACAJETE</t>
+          <t>Acajete</t>
         </is>
       </c>
       <c r="C459">
@@ -6441,7 +6441,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>AHUAZOTEPEC</t>
+          <t>Ahuazotepec</t>
         </is>
       </c>
       <c r="C460">
@@ -6454,7 +6454,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>AQUIXTLA</t>
+          <t>Aquixtla</t>
         </is>
       </c>
       <c r="C461">
@@ -6467,7 +6467,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>ATLIXCO</t>
+          <t>Atlixco</t>
         </is>
       </c>
       <c r="C462">
@@ -6480,7 +6480,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>CALPAN</t>
+          <t>Calpan</t>
         </is>
       </c>
       <c r="C463">
@@ -6493,7 +6493,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>CAÑADA MORELOS</t>
+          <t>Cañada Morelos</t>
         </is>
       </c>
       <c r="C464">
@@ -6506,7 +6506,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>CHIAUTLA</t>
+          <t>Chiautla</t>
         </is>
       </c>
       <c r="C465">
@@ -6519,7 +6519,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>CHICONCUAUTLA</t>
+          <t>Chiconcuautla</t>
         </is>
       </c>
       <c r="C466">
@@ -6532,7 +6532,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>CHIETLA</t>
+          <t>Chietla</t>
         </is>
       </c>
       <c r="C467">
@@ -6545,7 +6545,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>CHIGNAHUAPAN</t>
+          <t>Chignahuapan</t>
         </is>
       </c>
       <c r="C468">
@@ -6558,7 +6558,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>CORONANGO</t>
+          <t>Coronango</t>
         </is>
       </c>
       <c r="C469">
@@ -6571,7 +6571,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>COYOMEAPAN</t>
+          <t>Coyomeapan</t>
         </is>
       </c>
       <c r="C470">
@@ -6584,7 +6584,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>CUAUTLANCINGO</t>
+          <t>Cuautlancingo</t>
         </is>
       </c>
       <c r="C471">
@@ -6597,7 +6597,7 @@
     <row r="472">
       <c r="B472" t="inlineStr">
         <is>
-          <t>EPATLÁN</t>
+          <t>Epatlán</t>
         </is>
       </c>
       <c r="C472">
@@ -6610,7 +6610,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>HUATLATLAUCA</t>
+          <t>Huatlatlauca</t>
         </is>
       </c>
       <c r="C473">
@@ -6623,7 +6623,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>HUAUCHINANGO</t>
+          <t>Huauchinango</t>
         </is>
       </c>
       <c r="C474">
@@ -6636,7 +6636,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>HUEHUETLÁN EL CHICO</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C475">
@@ -6649,7 +6649,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>IZÚCAR DE MATAMOROS</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C476">
@@ -6662,7 +6662,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>LIBRES</t>
+          <t>Libres</t>
         </is>
       </c>
       <c r="C477">
@@ -6675,7 +6675,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>PAHUATLÁN</t>
+          <t>Pahuatlán</t>
         </is>
       </c>
       <c r="C478">
@@ -6688,7 +6688,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>PALMAR DE BRAVO</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C479">
@@ -6701,7 +6701,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>PIAXTLA</t>
+          <t>Piaxtla</t>
         </is>
       </c>
       <c r="C480">
@@ -6714,7 +6714,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="C481">
@@ -6727,7 +6727,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>RAFAEL LARA GRAJALES</t>
+          <t>Rafael Lara Grajales</t>
         </is>
       </c>
       <c r="C482">
@@ -6740,7 +6740,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>SAN NICOLÁS DE LOS RANCHOS</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C483">
@@ -6753,7 +6753,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>SANTA ISABEL CHOLULA</t>
+          <t>Santa Isabel Cholula</t>
         </is>
       </c>
       <c r="C484">
@@ -6766,7 +6766,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>SANTO TOMÁS HUEYOTLIPAN</t>
+          <t>Santo Tomás Hueyotlipan</t>
         </is>
       </c>
       <c r="C485">
@@ -6779,7 +6779,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>TECAMACHALCO</t>
+          <t>Tecamachalco</t>
         </is>
       </c>
       <c r="C486">
@@ -6792,7 +6792,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>TEPEACA</t>
+          <t>Tepeaca</t>
         </is>
       </c>
       <c r="C487">
@@ -6805,7 +6805,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>TLACHICHUCA</t>
+          <t>Tlachichuca</t>
         </is>
       </c>
       <c r="C488">
@@ -6818,7 +6818,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>TLACOTEPEC DE BENITO JUÁREZ</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C489">
@@ -6831,7 +6831,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>TLACUILOTEPEC</t>
+          <t>Tlacuilotepec</t>
         </is>
       </c>
       <c r="C490">
@@ -6844,7 +6844,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>TLANEPANTLA</t>
+          <t>Tlanepantla</t>
         </is>
       </c>
       <c r="C491">
@@ -6857,7 +6857,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>TLATLAUQUITEPEC</t>
+          <t>Tlatlauquitepec</t>
         </is>
       </c>
       <c r="C492">
@@ -6870,7 +6870,7 @@
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>TOCHIMILCO</t>
+          <t>Tochimilco</t>
         </is>
       </c>
       <c r="C493">
@@ -6883,7 +6883,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>VICENTE GUERRERO</t>
+          <t>Vicente Guerrero</t>
         </is>
       </c>
       <c r="C494">
@@ -6896,7 +6896,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>ZACAPOAXTLA</t>
+          <t>Zacapoaxtla</t>
         </is>
       </c>
       <c r="C495">
@@ -6909,7 +6909,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>ZACATLÁN</t>
+          <t>Zacatlán</t>
         </is>
       </c>
       <c r="C496">
@@ -6922,7 +6922,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C497">
@@ -6935,12 +6935,12 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>QUERÉTARO</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>AMEALCO DE BONFIL</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C498">
@@ -6953,7 +6953,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>CADEREYTA DE MONTES</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C499">
@@ -6966,7 +6966,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>EL MARQUÉS</t>
+          <t>El Marqués</t>
         </is>
       </c>
       <c r="C500">
@@ -6979,7 +6979,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>JALPAN DE SERRA</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C501">
@@ -6992,7 +6992,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>QUERÉTARO</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="C502">
@@ -7005,7 +7005,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>SAN JUAN DEL RÍO</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C503">
@@ -7018,7 +7018,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>TOLIMÁN</t>
+          <t>Tolimán</t>
         </is>
       </c>
       <c r="C504">
@@ -7031,7 +7031,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C505">
@@ -7044,12 +7044,12 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>QUINTANA ROO</t>
+          <t>Quintana Roo</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>OTHÓN P. BLANCO</t>
+          <t>Othón P. Blanco</t>
         </is>
       </c>
       <c r="C506">
@@ -7062,7 +7062,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C507">
@@ -7075,12 +7075,12 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSÍ</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>AQUISMÓN</t>
+          <t>Aquismón</t>
         </is>
       </c>
       <c r="C508">
@@ -7093,7 +7093,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>CERRITOS</t>
+          <t>Cerritos</t>
         </is>
       </c>
       <c r="C509">
@@ -7106,7 +7106,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>CHARCAS</t>
+          <t>Charcas</t>
         </is>
       </c>
       <c r="C510">
@@ -7119,7 +7119,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>CIUDAD FERNÁNDEZ</t>
+          <t>Ciudad Fernández</t>
         </is>
       </c>
       <c r="C511">
@@ -7132,7 +7132,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>EBANO</t>
+          <t>Ebano</t>
         </is>
       </c>
       <c r="C512">
@@ -7145,7 +7145,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>MEXQUITIC DE CARMONA</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C513">
@@ -7158,7 +7158,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>RIOVERDE</t>
+          <t>Rioverde</t>
         </is>
       </c>
       <c r="C514">
@@ -7171,7 +7171,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>SALINAS</t>
+          <t>Salinas</t>
         </is>
       </c>
       <c r="C515">
@@ -7184,7 +7184,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSÍ</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
       <c r="C516">
@@ -7197,7 +7197,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>SAN VICENTE TANCUAYALAB</t>
+          <t>San Vicente Tancuayalab</t>
         </is>
       </c>
       <c r="C517">
@@ -7210,7 +7210,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO</t>
+          <t>Santo Domingo</t>
         </is>
       </c>
       <c r="C518">
@@ -7223,7 +7223,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>SOLEDAD DE GRACIANO SÁNCHEZ</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C519">
@@ -7236,7 +7236,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>VILLA DE RAMOS</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C520">
@@ -7249,7 +7249,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>VILLA DE REYES</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C521">
@@ -7262,7 +7262,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>VILLA HIDALGO</t>
+          <t>Villa Hidalgo</t>
         </is>
       </c>
       <c r="C522">
@@ -7275,7 +7275,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>VILLA JUÁREZ</t>
+          <t>Villa Juárez</t>
         </is>
       </c>
       <c r="C523">
@@ -7288,7 +7288,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C524">
@@ -7301,12 +7301,12 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>SINALOA</t>
+          <t>Sinaloa</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>AHOME</t>
+          <t>Ahome</t>
         </is>
       </c>
       <c r="C525">
@@ -7319,7 +7319,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>ANGOSTURA</t>
+          <t>Angostura</t>
         </is>
       </c>
       <c r="C526">
@@ -7332,7 +7332,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>BADIRAGUATO</t>
+          <t>Badiraguato</t>
         </is>
       </c>
       <c r="C527">
@@ -7345,7 +7345,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>CHOIX</t>
+          <t>Choix</t>
         </is>
       </c>
       <c r="C528">
@@ -7358,7 +7358,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>COSALÁ</t>
+          <t>Cosalá</t>
         </is>
       </c>
       <c r="C529">
@@ -7371,7 +7371,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>CULIACÁN</t>
+          <t>Culiacán</t>
         </is>
       </c>
       <c r="C530">
@@ -7384,7 +7384,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>EL FUERTE</t>
+          <t>El Fuerte</t>
         </is>
       </c>
       <c r="C531">
@@ -7397,7 +7397,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>ESCUINAPA</t>
+          <t>Escuinapa</t>
         </is>
       </c>
       <c r="C532">
@@ -7410,7 +7410,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>GUASAVE</t>
+          <t>Guasave</t>
         </is>
       </c>
       <c r="C533">
@@ -7423,7 +7423,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>MOCORITO</t>
+          <t>Mocorito</t>
         </is>
       </c>
       <c r="C534">
@@ -7436,7 +7436,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>NAVOLATO</t>
+          <t>Navolato</t>
         </is>
       </c>
       <c r="C535">
@@ -7449,7 +7449,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>SALVADOR ALVARADO</t>
+          <t>Salvador Alvarado</t>
         </is>
       </c>
       <c r="C536">
@@ -7462,7 +7462,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C537">
@@ -7475,12 +7475,12 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>SONORA</t>
+          <t>Sonora</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>AGUA PRIETA</t>
+          <t>Agua Prieta</t>
         </is>
       </c>
       <c r="C538">
@@ -7493,7 +7493,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>BAVISPE</t>
+          <t>Bavispe</t>
         </is>
       </c>
       <c r="C539">
@@ -7506,7 +7506,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>CAJEME</t>
+          <t>Cajeme</t>
         </is>
       </c>
       <c r="C540">
@@ -7519,7 +7519,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>EMPALME</t>
+          <t>Empalme</t>
         </is>
       </c>
       <c r="C541">
@@ -7532,7 +7532,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>ETCHOJOA</t>
+          <t>Etchojoa</t>
         </is>
       </c>
       <c r="C542">
@@ -7545,7 +7545,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>HERMOSILLO</t>
+          <t>Hermosillo</t>
         </is>
       </c>
       <c r="C543">
@@ -7558,7 +7558,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>NAVOJOA</t>
+          <t>Navojoa</t>
         </is>
       </c>
       <c r="C544">
@@ -7571,7 +7571,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>NOGALES</t>
+          <t>Nogales</t>
         </is>
       </c>
       <c r="C545">
@@ -7584,7 +7584,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C546">
@@ -7597,12 +7597,12 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>TABASCO</t>
+          <t>Tabasco</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>BALANCÁN</t>
+          <t>Balancán</t>
         </is>
       </c>
       <c r="C547">
@@ -7615,7 +7615,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>COMALCALCO</t>
+          <t>Comalcalco</t>
         </is>
       </c>
       <c r="C548">
@@ -7628,7 +7628,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>CUNDUACÁN</t>
+          <t>Cunduacán</t>
         </is>
       </c>
       <c r="C549">
@@ -7641,7 +7641,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>CÁRDENAS</t>
+          <t>Cárdenas</t>
         </is>
       </c>
       <c r="C550">
@@ -7654,7 +7654,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>JONUTA</t>
+          <t>Jonuta</t>
         </is>
       </c>
       <c r="C551">
@@ -7667,7 +7667,7 @@
     <row r="552">
       <c r="B552" t="inlineStr">
         <is>
-          <t>TACOTALPA</t>
+          <t>Tacotalpa</t>
         </is>
       </c>
       <c r="C552">
@@ -7680,7 +7680,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>TENOSIQUE</t>
+          <t>Tenosique</t>
         </is>
       </c>
       <c r="C553">
@@ -7693,7 +7693,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C554">
@@ -7706,12 +7706,12 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>TAMAULIPAS</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>ALDAMA</t>
+          <t>Aldama</t>
         </is>
       </c>
       <c r="C555">
@@ -7724,7 +7724,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>ALTAMIRA</t>
+          <t>Altamira</t>
         </is>
       </c>
       <c r="C556">
@@ -7737,7 +7737,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>CAMARGO</t>
+          <t>Camargo</t>
         </is>
       </c>
       <c r="C557">
@@ -7750,7 +7750,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>CIUDAD MADERO</t>
+          <t>Ciudad Madero</t>
         </is>
       </c>
       <c r="C558">
@@ -7763,7 +7763,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>EL MANTE</t>
+          <t>El Mante</t>
         </is>
       </c>
       <c r="C559">
@@ -7776,7 +7776,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>LLERA</t>
+          <t>Llera</t>
         </is>
       </c>
       <c r="C560">
@@ -7789,7 +7789,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>MATAMOROS</t>
+          <t>Matamoros</t>
         </is>
       </c>
       <c r="C561">
@@ -7802,7 +7802,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>NUEVO LAREDO</t>
+          <t>Nuevo Laredo</t>
         </is>
       </c>
       <c r="C562">
@@ -7815,7 +7815,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>REYNOSA</t>
+          <t>Reynosa</t>
         </is>
       </c>
       <c r="C563">
@@ -7828,7 +7828,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>RÍO BRAVO</t>
+          <t>Río Bravo</t>
         </is>
       </c>
       <c r="C564">
@@ -7841,7 +7841,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>SAN FERNANDO</t>
+          <t>San Fernando</t>
         </is>
       </c>
       <c r="C565">
@@ -7854,7 +7854,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>SOTO LA MARINA</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C566">
@@ -7867,7 +7867,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>TAMPICO</t>
+          <t>Tampico</t>
         </is>
       </c>
       <c r="C567">
@@ -7880,7 +7880,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>TULA</t>
+          <t>Tula</t>
         </is>
       </c>
       <c r="C568">
@@ -7893,7 +7893,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>VALLE HERMOSO</t>
+          <t>Valle Hermoso</t>
         </is>
       </c>
       <c r="C569">
@@ -7906,7 +7906,7 @@
     <row r="570">
       <c r="B570" t="inlineStr">
         <is>
-          <t>VICTORIA</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="C570">
@@ -7919,7 +7919,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>XICOTÉNCATL</t>
+          <t>Xicoténcatl</t>
         </is>
       </c>
       <c r="C571">
@@ -7932,7 +7932,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C572">
@@ -7945,12 +7945,12 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>TLAXCALA</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>ATLTZAYANCA</t>
+          <t>Atltzayanca</t>
         </is>
       </c>
       <c r="C573">
@@ -7963,7 +7963,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>HUEYOTLIPAN</t>
+          <t>Hueyotlipan</t>
         </is>
       </c>
       <c r="C574">
@@ -7976,7 +7976,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>TLAXCALA</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="C575">
@@ -7989,7 +7989,7 @@
     <row r="576">
       <c r="B576" t="inlineStr">
         <is>
-          <t>TLAXCO</t>
+          <t>Tlaxco</t>
         </is>
       </c>
       <c r="C576">
@@ -8002,7 +8002,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>TZOMPANTEPEC</t>
+          <t>Tzompantepec</t>
         </is>
       </c>
       <c r="C577">
@@ -8015,7 +8015,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C578">
@@ -8028,12 +8028,12 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>VERACRUZ DE IGNACIO DE LA LLAVE</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>AGUA DULCE</t>
+          <t>Agua Dulce</t>
         </is>
       </c>
       <c r="C579">
@@ -8046,7 +8046,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>ALTOTONGA</t>
+          <t>Altotonga</t>
         </is>
       </c>
       <c r="C580">
@@ -8059,7 +8059,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>ASTACINGA</t>
+          <t>Astacinga</t>
         </is>
       </c>
       <c r="C581">
@@ -8072,7 +8072,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>CALCAHUALCO</t>
+          <t>Calcahualco</t>
         </is>
       </c>
       <c r="C582">
@@ -8085,7 +8085,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>CARRILLO PUERTO</t>
+          <t>Carrillo Puerto</t>
         </is>
       </c>
       <c r="C583">
@@ -8098,7 +8098,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>CASTILLO DE TEAYO</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C584">
@@ -8111,7 +8111,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>CHACALTIANGUIS</t>
+          <t>Chacaltianguis</t>
         </is>
       </c>
       <c r="C585">
@@ -8124,7 +8124,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>CHALMA</t>
+          <t>Chalma</t>
         </is>
       </c>
       <c r="C586">
@@ -8137,7 +8137,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>CHICONAMEL</t>
+          <t>Chiconamel</t>
         </is>
       </c>
       <c r="C587">
@@ -8150,7 +8150,7 @@
     <row r="588">
       <c r="B588" t="inlineStr">
         <is>
-          <t>CHICONQUIACO</t>
+          <t>Chiconquiaco</t>
         </is>
       </c>
       <c r="C588">
@@ -8163,7 +8163,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>COATZACOALCOS</t>
+          <t>Coatzacoalcos</t>
         </is>
       </c>
       <c r="C589">
@@ -8176,7 +8176,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>COSAMALOAPAN DE CARPIO</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C590">
@@ -8189,7 +8189,7 @@
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>COSCOMATEPEC</t>
+          <t>Coscomatepec</t>
         </is>
       </c>
       <c r="C591">
@@ -8202,7 +8202,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>COTAXTLA</t>
+          <t>Cotaxtla</t>
         </is>
       </c>
       <c r="C592">
@@ -8215,7 +8215,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>COYUTLA</t>
+          <t>Coyutla</t>
         </is>
       </c>
       <c r="C593">
@@ -8228,7 +8228,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>CÓRDOBA</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="C594">
@@ -8241,7 +8241,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>GUTIÉRREZ ZAMORA</t>
+          <t>Gutiérrez Zamora</t>
         </is>
       </c>
       <c r="C595">
@@ -8254,7 +8254,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>HIDALGOTITLÁN</t>
+          <t>Hidalgotitlán</t>
         </is>
       </c>
       <c r="C596">
@@ -8267,7 +8267,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>HUATUSCO</t>
+          <t>Huatusco</t>
         </is>
       </c>
       <c r="C597">
@@ -8280,7 +8280,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>HUEYAPAN DE OCAMPO</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C598">
@@ -8293,7 +8293,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>IGNACIO DE LA LLAVE</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C599">
@@ -8306,7 +8306,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>IXHUATLANCILLO</t>
+          <t>Ixhuatlancillo</t>
         </is>
       </c>
       <c r="C600">
@@ -8319,7 +8319,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>IXHUATLÁN DE MADERO</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C601">
@@ -8332,7 +8332,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>JESÚS CARRANZA</t>
+          <t>Jesús Carranza</t>
         </is>
       </c>
       <c r="C602">
@@ -8345,7 +8345,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>JOSÉ AZUETA</t>
+          <t>José Azueta</t>
         </is>
       </c>
       <c r="C603">
@@ -8358,7 +8358,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>JUAN RODRÍGUEZ CLARA</t>
+          <t>Juan Rodríguez Clara</t>
         </is>
       </c>
       <c r="C604">
@@ -8371,7 +8371,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>JÁLTIPAN</t>
+          <t>Jáltipan</t>
         </is>
       </c>
       <c r="C605">
@@ -8384,7 +8384,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>LAS CHOAPAS</t>
+          <t>Las Choapas</t>
         </is>
       </c>
       <c r="C606">
@@ -8397,7 +8397,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>MANLIO FABIO ALTAMIRANO</t>
+          <t>Manlio Fabio Altamirano</t>
         </is>
       </c>
       <c r="C607">
@@ -8410,7 +8410,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>MEDELLÍN</t>
+          <t>Medellín</t>
         </is>
       </c>
       <c r="C608">
@@ -8423,7 +8423,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>MINATITLÁN</t>
+          <t>Minatitlán</t>
         </is>
       </c>
       <c r="C609">
@@ -8436,7 +8436,7 @@
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>NAUTLA</t>
+          <t>Nautla</t>
         </is>
       </c>
       <c r="C610">
@@ -8449,7 +8449,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>OLUTA</t>
+          <t>Oluta</t>
         </is>
       </c>
       <c r="C611">
@@ -8462,7 +8462,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>OTATITLÁN</t>
+          <t>Otatitlán</t>
         </is>
       </c>
       <c r="C612">
@@ -8475,7 +8475,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>PAPANTLA</t>
+          <t>Papantla</t>
         </is>
       </c>
       <c r="C613">
@@ -8488,7 +8488,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>PLAYA VICENTE</t>
+          <t>Playa Vicente</t>
         </is>
       </c>
       <c r="C614">
@@ -8501,7 +8501,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>POZA RICA DE HIDALGO</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C615">
@@ -8514,7 +8514,7 @@
     <row r="616">
       <c r="B616" t="inlineStr">
         <is>
-          <t>PÁNUCO</t>
+          <t>Pánuco</t>
         </is>
       </c>
       <c r="C616">
@@ -8527,7 +8527,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>SAN JUAN EVANGELISTA</t>
+          <t>San Juan Evangelista</t>
         </is>
       </c>
       <c r="C617">
@@ -8540,7 +8540,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>SOLEDAD ATZOMPA</t>
+          <t>Soledad Atzompa</t>
         </is>
       </c>
       <c r="C618">
@@ -8553,7 +8553,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>TECOLUTLA</t>
+          <t>Tecolutla</t>
         </is>
       </c>
       <c r="C619">
@@ -8566,7 +8566,7 @@
     <row r="620">
       <c r="B620" t="inlineStr">
         <is>
-          <t>TEXISTEPEC</t>
+          <t>Texistepec</t>
         </is>
       </c>
       <c r="C620">
@@ -8579,7 +8579,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>TEZONAPA</t>
+          <t>Tezonapa</t>
         </is>
       </c>
       <c r="C621">
@@ -8592,7 +8592,7 @@
     <row r="622">
       <c r="B622" t="inlineStr">
         <is>
-          <t>TIERRA BLANCA</t>
+          <t>Tierra Blanca</t>
         </is>
       </c>
       <c r="C622">
@@ -8605,7 +8605,7 @@
     <row r="623">
       <c r="B623" t="inlineStr">
         <is>
-          <t>TIHUATLÁN</t>
+          <t>Tihuatlán</t>
         </is>
       </c>
       <c r="C623">
@@ -8618,7 +8618,7 @@
     <row r="624">
       <c r="B624" t="inlineStr">
         <is>
-          <t>TLAPACOYAN</t>
+          <t>Tlapacoyan</t>
         </is>
       </c>
       <c r="C624">
@@ -8631,7 +8631,7 @@
     <row r="625">
       <c r="B625" t="inlineStr">
         <is>
-          <t>TLAQUILPA</t>
+          <t>Tlaquilpa</t>
         </is>
       </c>
       <c r="C625">
@@ -8644,7 +8644,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>TUXPAN</t>
+          <t>Tuxpan</t>
         </is>
       </c>
       <c r="C626">
@@ -8657,7 +8657,7 @@
     <row r="627">
       <c r="B627" t="inlineStr">
         <is>
-          <t>UXPANAPA</t>
+          <t>Uxpanapa</t>
         </is>
       </c>
       <c r="C627">
@@ -8670,7 +8670,7 @@
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>VERACRUZ</t>
+          <t>Veracruz</t>
         </is>
       </c>
       <c r="C628">
@@ -8683,7 +8683,7 @@
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>XALAPA</t>
+          <t>Xalapa</t>
         </is>
       </c>
       <c r="C629">
@@ -8696,7 +8696,7 @@
     <row r="630">
       <c r="B630" t="inlineStr">
         <is>
-          <t>YANGA</t>
+          <t>Yanga</t>
         </is>
       </c>
       <c r="C630">
@@ -8709,7 +8709,7 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C631">
@@ -8722,12 +8722,12 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>YUCATÁN</t>
+          <t>Yucatán</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
+          <t>Mérida</t>
         </is>
       </c>
       <c r="C632">
@@ -8740,7 +8740,7 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>PETO</t>
+          <t>Peto</t>
         </is>
       </c>
       <c r="C633">
@@ -8753,7 +8753,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C634">
@@ -8766,12 +8766,12 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>ZACATECAS</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>CHALCHIHUITES</t>
+          <t>Chalchihuites</t>
         </is>
       </c>
       <c r="C635">
@@ -8784,7 +8784,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>FRESNILLO</t>
+          <t>Fresnillo</t>
         </is>
       </c>
       <c r="C636">
@@ -8797,7 +8797,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>GENERAL FRANCISCO R. MURGUÍA</t>
+          <t>General Francisco R. Murguía</t>
         </is>
       </c>
       <c r="C637">
@@ -8810,7 +8810,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>GENERAL PÁNFILO NATERA</t>
+          <t>General Pánfilo Natera</t>
         </is>
       </c>
       <c r="C638">
@@ -8823,7 +8823,7 @@
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>GUADALUPE</t>
+          <t>Guadalupe</t>
         </is>
       </c>
       <c r="C639">
@@ -8836,7 +8836,7 @@
     <row r="640">
       <c r="B640" t="inlineStr">
         <is>
-          <t>JUAN ALDAMA</t>
+          <t>Juan Aldama</t>
         </is>
       </c>
       <c r="C640">
@@ -8849,7 +8849,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>JUCHIPILA</t>
+          <t>Juchipila</t>
         </is>
       </c>
       <c r="C641">
@@ -8862,7 +8862,7 @@
     <row r="642">
       <c r="B642" t="inlineStr">
         <is>
-          <t>LORETO</t>
+          <t>Loreto</t>
         </is>
       </c>
       <c r="C642">
@@ -8875,7 +8875,7 @@
     <row r="643">
       <c r="B643" t="inlineStr">
         <is>
-          <t>MIGUEL AUZA</t>
+          <t>Miguel Auza</t>
         </is>
       </c>
       <c r="C643">
@@ -8888,7 +8888,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>MONTE ESCOBEDO</t>
+          <t>Monte Escobedo</t>
         </is>
       </c>
       <c r="C644">
@@ -8901,7 +8901,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>MORELOS</t>
+          <t>Morelos</t>
         </is>
       </c>
       <c r="C645">
@@ -8914,7 +8914,7 @@
     <row r="646">
       <c r="B646" t="inlineStr">
         <is>
-          <t>NORIA DE ÁNGELES</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C646">
@@ -8927,7 +8927,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>OJOCALIENTE</t>
+          <t>Ojocaliente</t>
         </is>
       </c>
       <c r="C647">
@@ -8940,7 +8940,7 @@
     <row r="648">
       <c r="B648" t="inlineStr">
         <is>
-          <t>PINOS</t>
+          <t>Pinos</t>
         </is>
       </c>
       <c r="C648">
@@ -8953,7 +8953,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>RÍO GRANDE</t>
+          <t>Río Grande</t>
         </is>
       </c>
       <c r="C649">
@@ -8966,7 +8966,7 @@
     <row r="650">
       <c r="B650" t="inlineStr">
         <is>
-          <t>SAIN ALTO</t>
+          <t>Sain Alto</t>
         </is>
       </c>
       <c r="C650">
@@ -8979,7 +8979,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>SOMBRERETE</t>
+          <t>Sombrerete</t>
         </is>
       </c>
       <c r="C651">
@@ -8992,7 +8992,7 @@
     <row r="652">
       <c r="B652" t="inlineStr">
         <is>
-          <t>TEPETONGO</t>
+          <t>Tepetongo</t>
         </is>
       </c>
       <c r="C652">
@@ -9005,7 +9005,7 @@
     <row r="653">
       <c r="B653" t="inlineStr">
         <is>
-          <t>TLALTENANGO DE SÁNCHEZ ROMÁN</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C653">
@@ -9018,7 +9018,7 @@
     <row r="654">
       <c r="B654" t="inlineStr">
         <is>
-          <t>VALPARAÍSO</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="C654">
@@ -9031,7 +9031,7 @@
     <row r="655">
       <c r="B655" t="inlineStr">
         <is>
-          <t>VILLA DE COS</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C655">
@@ -9044,7 +9044,7 @@
     <row r="656">
       <c r="B656" t="inlineStr">
         <is>
-          <t>VILLANUEVA</t>
+          <t>Villanueva</t>
         </is>
       </c>
       <c r="C656">
@@ -9057,7 +9057,7 @@
     <row r="657">
       <c r="B657" t="inlineStr">
         <is>
-          <t>ZACATECAS</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="C657">
@@ -9070,7 +9070,7 @@
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C658">
@@ -9083,7 +9083,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C659">
@@ -9091,41 +9091,6 @@
       </c>
       <c r="D659">
         <v>1</v>
-      </c>
-    </row>
-    <row r="661">
-      <c r="A661" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 789,030</t>
-        </is>
-      </c>
-    </row>
-    <row r="662">
-      <c r="A662" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="663">
-      <c r="A663" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="664">
-      <c r="A664" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="665">
-      <c r="A665" t="inlineStr">
-        <is>
-          <t>Noviembre de 2024</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/NEBRASKA_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/NEBRASKA_2023.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>El Llano</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Pabellón De Arteaga</t>
@@ -437,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Rincón De Romos</t>
@@ -450,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Tepezalá</t>
@@ -463,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Total</t>
@@ -494,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Mexicali</t>
@@ -507,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Tecate</t>
@@ -520,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -533,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Total</t>
@@ -564,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Total</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Campeche</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Candelaria</t>
@@ -621,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Carmen</t>
@@ -634,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Champotón</t>
@@ -647,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Escárcega</t>
@@ -660,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Hecelchakán</t>
@@ -673,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Hopelchén</t>
@@ -686,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Total</t>
@@ -717,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Comitán De Domínguez</t>
@@ -730,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -743,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Huehuetán</t>
@@ -756,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Ixtapa</t>
@@ -769,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -782,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -795,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -808,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -821,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Ocotepec</t>
@@ -834,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Salto De Agua</t>
@@ -847,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Simojovel</t>
@@ -860,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Socoltenango</t>
@@ -873,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -886,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Tecpatán</t>
@@ -899,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Tuxtla Gutiérrez</t>
@@ -912,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Tuzantán</t>
@@ -925,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Villa Corzo</t>
@@ -938,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Villaflores</t>
@@ -951,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Total</t>
@@ -982,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Aldama</t>
@@ -995,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Allende</t>
@@ -1008,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Ascensión</t>
@@ -1021,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Buenaventura</t>
@@ -1034,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Camargo</t>
@@ -1047,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Casas Grandes</t>
@@ -1060,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Chihuahua</t>
@@ -1073,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1086,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Delicias</t>
@@ -1099,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Dr. Belisario Domínguez</t>
@@ -1112,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>El Tule</t>
@@ -1125,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Guazapares</t>
@@ -1138,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Guerrero</t>
@@ -1151,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Gómez Farías</t>
@@ -1164,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Hidalgo Del Parral</t>
@@ -1177,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Huejotitán</t>
@@ -1190,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Ignacio Zaragoza</t>
@@ -1203,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Jiménez</t>
@@ -1216,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -1229,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>La Cruz</t>
@@ -1242,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Madera</t>
@@ -1255,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Meoqui</t>
@@ -1268,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Namiquipa</t>
@@ -1281,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Nuevo Casas Grandes</t>
@@ -1294,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>San Francisco Del Oro</t>
@@ -1307,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Temósachic</t>
@@ -1320,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Urique</t>
@@ -1333,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Valle De Zaragoza</t>
@@ -1346,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1377,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -1390,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -1403,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Cuajimalpa De Morelos</t>
@@ -1416,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1429,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -1442,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -1455,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -1468,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>La Magdalena Contreras</t>
@@ -1481,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -1494,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
@@ -1507,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -1520,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Tláhuac</t>
@@ -1533,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1546,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Álvaro Obregón</t>
@@ -1559,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1590,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Francisco I. Madero</t>
@@ -1603,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Frontera</t>
@@ -1616,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>General Cepeda</t>
@@ -1629,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -1642,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Monclova</t>
@@ -1655,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Saltillo</t>
@@ -1668,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>San Pedro</t>
@@ -1681,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Torreón</t>
@@ -1694,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Zaragoza</t>
@@ -1707,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1738,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Manzanillo</t>
@@ -1751,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Tecomán</t>
@@ -1764,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1795,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Canelas</t>
@@ -1808,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Cuencamé</t>
@@ -1821,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Durango</t>
@@ -1834,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>General Simón Bolívar</t>
@@ -1847,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -1860,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Guanaceví</t>
@@ -1873,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -1886,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Lerdo</t>
@@ -1899,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Mapimí</t>
@@ -1912,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Mezquital</t>
@@ -1925,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Nazas</t>
@@ -1938,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Nombre De Dios</t>
@@ -1951,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -1964,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Peñón Blanco</t>
@@ -1977,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Poanas</t>
@@ -1990,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Rodeo</t>
@@ -2003,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Santa Clara</t>
@@ -2016,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Santiago Papasquiaro</t>
@@ -2029,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Tepehuanes</t>
@@ -2042,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Tlahualilo</t>
@@ -2055,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Topia</t>
@@ -2068,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -2081,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2112,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Almoloya De Juárez</t>
@@ -2125,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Amanalco</t>
@@ -2138,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Amatepec</t>
@@ -2151,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Atenco</t>
@@ -2164,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Chalco</t>
@@ -2177,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Chicoloapan</t>
@@ -2190,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Chimalhuacán</t>
@@ -2203,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Coacalco De Berriozábal</t>
@@ -2216,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Coatepec Harinas</t>
@@ -2229,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Donato Guerra</t>
@@ -2242,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -2255,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>El Oro</t>
@@ -2268,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Ixtapan De La Sal</t>
@@ -2281,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Ixtlahuaca</t>
@@ -2294,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Joquicingo</t>
@@ -2307,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>La Paz</t>
@@ -2320,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Lerma</t>
@@ -2333,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Naucalpan De Juárez</t>
@@ -2346,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -2359,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Nicolás Romero</t>
@@ -2372,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Ozumba</t>
@@ -2385,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -2398,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>San José Del Rincón</t>
@@ -2411,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -2424,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Temascalapa</t>
@@ -2437,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Temascalcingo</t>
@@ -2450,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Temoaya</t>
@@ -2463,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Teoloyucan</t>
@@ -2476,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Texcoco</t>
@@ -2489,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -2502,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -2515,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Tultitlán</t>
@@ -2528,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Valle De Bravo</t>
@@ -2541,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Valle De Chalco Solidaridad</t>
@@ -2554,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Villa Del Carbón</t>
@@ -2567,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Villa Guerrero</t>
@@ -2580,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Zacualpan</t>
@@ -2593,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2624,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Acámbaro</t>
@@ -2637,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Apaseo El Alto</t>
@@ -2650,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -2663,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Comonfort</t>
@@ -2676,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Cortazar</t>
@@ -2689,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Doctor Mora</t>
@@ -2702,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
@@ -2715,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Guanajuato</t>
@@ -2728,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Huanímaro</t>
@@ -2741,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -2754,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>Jaral Del Progreso</t>
@@ -2767,6 +3602,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>Jerécuaro</t>
@@ -2780,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>León</t>
@@ -2793,6 +3638,11 @@
       </c>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>Moroleón</t>
@@ -2806,6 +3656,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>Purísima Del Rincón</t>
@@ -2819,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -2832,6 +3692,11 @@
       </c>
     </row>
     <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>Romita</t>
@@ -2845,6 +3710,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -2858,6 +3728,11 @@
       </c>
     </row>
     <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>Salvatierra</t>
@@ -2871,6 +3746,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>San Felipe</t>
@@ -2884,6 +3764,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>San Francisco Del Rincón</t>
@@ -2897,6 +3782,11 @@
       </c>
     </row>
     <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>San José Iturbide</t>
@@ -2910,6 +3800,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>San Luis De La Paz</t>
@@ -2923,6 +3818,11 @@
       </c>
     </row>
     <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>San Miguel De Allende</t>
@@ -2936,6 +3836,11 @@
       </c>
     </row>
     <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B194" t="inlineStr">
         <is>
           <t>Santa Cruz De Juventino Rosas</t>
@@ -2949,6 +3854,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>Tarimoro</t>
@@ -2962,6 +3872,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>Uriangato</t>
@@ -2975,6 +3890,11 @@
       </c>
     </row>
     <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>Valle De Santiago</t>
@@ -2988,6 +3908,11 @@
       </c>
     </row>
     <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>Villagrán</t>
@@ -3001,6 +3926,11 @@
       </c>
     </row>
     <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>Yuriria</t>
@@ -3014,6 +3944,11 @@
       </c>
     </row>
     <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3045,6 +3980,11 @@
       </c>
     </row>
     <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
           <t>Ajuchitlán Del Progreso</t>
@@ -3058,6 +3998,11 @@
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>Apaxtla</t>
@@ -3071,6 +4016,11 @@
       </c>
     </row>
     <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>Arcelia</t>
@@ -3084,6 +4034,11 @@
       </c>
     </row>
     <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>Atoyac De Álvarez</t>
@@ -3097,6 +4052,11 @@
       </c>
     </row>
     <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -3110,6 +4070,11 @@
       </c>
     </row>
     <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>Azoyú</t>
@@ -3123,6 +4088,11 @@
       </c>
     </row>
     <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>Chilapa De Álvarez</t>
@@ -3136,6 +4106,11 @@
       </c>
     </row>
     <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -3149,6 +4124,11 @@
       </c>
     </row>
     <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>Cocula</t>
@@ -3162,6 +4142,11 @@
       </c>
     </row>
     <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B211" t="inlineStr">
         <is>
           <t>Copala</t>
@@ -3175,6 +4160,11 @@
       </c>
     </row>
     <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B212" t="inlineStr">
         <is>
           <t>Coyuca De Benítez</t>
@@ -3188,6 +4178,11 @@
       </c>
     </row>
     <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>Coyuca De Catalán</t>
@@ -3201,6 +4196,11 @@
       </c>
     </row>
     <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
           <t>Cuajinicuilapa</t>
@@ -3214,6 +4214,11 @@
       </c>
     </row>
     <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B215" t="inlineStr">
         <is>
           <t>Cualác</t>
@@ -3227,6 +4232,11 @@
       </c>
     </row>
     <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B216" t="inlineStr">
         <is>
           <t>Cuautepec</t>
@@ -3240,6 +4250,11 @@
       </c>
     </row>
     <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
           <t>Cuetzala Del Progreso</t>
@@ -3253,6 +4268,11 @@
       </c>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>Cutzamala De Pinzón</t>
@@ -3266,6 +4286,11 @@
       </c>
     </row>
     <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>Florencio Villarreal</t>
@@ -3279,6 +4304,11 @@
       </c>
     </row>
     <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>General Canuto A. Neri</t>
@@ -3292,6 +4322,11 @@
       </c>
     </row>
     <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>General Heliodoro Castillo</t>
@@ -3305,6 +4340,11 @@
       </c>
     </row>
     <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
           <t>Huitzuco De Los Figueroa</t>
@@ -3318,6 +4358,11 @@
       </c>
     </row>
     <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
           <t>Iguala De La Independencia</t>
@@ -3331,6 +4376,11 @@
       </c>
     </row>
     <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>Juan R. Escudero</t>
@@ -3344,6 +4394,11 @@
       </c>
     </row>
     <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B225" t="inlineStr">
         <is>
           <t>Leonardo Bravo</t>
@@ -3357,6 +4412,11 @@
       </c>
     </row>
     <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B226" t="inlineStr">
         <is>
           <t>Malinaltepec</t>
@@ -3370,6 +4430,11 @@
       </c>
     </row>
     <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>Mochitlán</t>
@@ -3383,6 +4448,11 @@
       </c>
     </row>
     <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B228" t="inlineStr">
         <is>
           <t>Ometepec</t>
@@ -3396,6 +4466,11 @@
       </c>
     </row>
     <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>Petatlán</t>
@@ -3409,6 +4484,11 @@
       </c>
     </row>
     <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B230" t="inlineStr">
         <is>
           <t>Quechultenango</t>
@@ -3422,6 +4502,11 @@
       </c>
     </row>
     <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B231" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -3435,6 +4520,11 @@
       </c>
     </row>
     <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B232" t="inlineStr">
         <is>
           <t>San Marcos</t>
@@ -3448,6 +4538,11 @@
       </c>
     </row>
     <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B233" t="inlineStr">
         <is>
           <t>San Miguel Totolapan</t>
@@ -3461,6 +4556,11 @@
       </c>
     </row>
     <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B234" t="inlineStr">
         <is>
           <t>Tecoanapa</t>
@@ -3474,6 +4574,11 @@
       </c>
     </row>
     <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>Teloloapan</t>
@@ -3487,6 +4592,11 @@
       </c>
     </row>
     <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B236" t="inlineStr">
         <is>
           <t>Tixtla De Guerrero</t>
@@ -3500,6 +4610,11 @@
       </c>
     </row>
     <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>Tlacoachistlahuaca</t>
@@ -3513,6 +4628,11 @@
       </c>
     </row>
     <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B238" t="inlineStr">
         <is>
           <t>Tlalchapa</t>
@@ -3526,6 +4646,11 @@
       </c>
     </row>
     <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -3539,6 +4664,11 @@
       </c>
     </row>
     <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B240" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -3552,6 +4682,11 @@
       </c>
     </row>
     <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>Zihuatanejo De Azueta</t>
@@ -3565,6 +4700,11 @@
       </c>
     </row>
     <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B242" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3596,6 +4736,11 @@
       </c>
     </row>
     <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B244" t="inlineStr">
         <is>
           <t>Actopan</t>
@@ -3609,6 +4754,11 @@
       </c>
     </row>
     <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B245" t="inlineStr">
         <is>
           <t>Atotonilco De Tula</t>
@@ -3622,6 +4772,11 @@
       </c>
     </row>
     <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B246" t="inlineStr">
         <is>
           <t>Atotonilco El Grande</t>
@@ -3635,6 +4790,11 @@
       </c>
     </row>
     <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B247" t="inlineStr">
         <is>
           <t>Cuautepec De Hinojosa</t>
@@ -3648,6 +4808,11 @@
       </c>
     </row>
     <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B248" t="inlineStr">
         <is>
           <t>Epazoyucan</t>
@@ -3661,6 +4826,11 @@
       </c>
     </row>
     <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B249" t="inlineStr">
         <is>
           <t>Francisco I. Madero</t>
@@ -3674,6 +4844,11 @@
       </c>
     </row>
     <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B250" t="inlineStr">
         <is>
           <t>Huasca De Ocampo</t>
@@ -3687,6 +4862,11 @@
       </c>
     </row>
     <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B251" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -3700,6 +4880,11 @@
       </c>
     </row>
     <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B252" t="inlineStr">
         <is>
           <t>Metepec</t>
@@ -3713,6 +4898,11 @@
       </c>
     </row>
     <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B253" t="inlineStr">
         <is>
           <t>Mixquiahuala De Juárez</t>
@@ -3726,6 +4916,11 @@
       </c>
     </row>
     <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B254" t="inlineStr">
         <is>
           <t>Nicolás Flores</t>
@@ -3739,6 +4934,11 @@
       </c>
     </row>
     <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B255" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -3752,6 +4952,11 @@
       </c>
     </row>
     <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B256" t="inlineStr">
         <is>
           <t>Progreso De Obregón</t>
@@ -3765,6 +4970,11 @@
       </c>
     </row>
     <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B257" t="inlineStr">
         <is>
           <t>Tasquillo</t>
@@ -3778,6 +4988,11 @@
       </c>
     </row>
     <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B258" t="inlineStr">
         <is>
           <t>Tenango De Doria</t>
@@ -3791,6 +5006,11 @@
       </c>
     </row>
     <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B259" t="inlineStr">
         <is>
           <t>Tezontepec De Aldama</t>
@@ -3804,6 +5024,11 @@
       </c>
     </row>
     <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B260" t="inlineStr">
         <is>
           <t>Tizayuca</t>
@@ -3817,6 +5042,11 @@
       </c>
     </row>
     <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B261" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -3830,6 +5060,11 @@
       </c>
     </row>
     <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B262" t="inlineStr">
         <is>
           <t>Xochiatipan</t>
@@ -3843,6 +5078,11 @@
       </c>
     </row>
     <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B263" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3874,6 +5114,11 @@
       </c>
     </row>
     <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B265" t="inlineStr">
         <is>
           <t>Ameca</t>
@@ -3887,6 +5132,11 @@
       </c>
     </row>
     <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B266" t="inlineStr">
         <is>
           <t>Atengo</t>
@@ -3900,6 +5150,11 @@
       </c>
     </row>
     <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B267" t="inlineStr">
         <is>
           <t>Atotonilco El Alto</t>
@@ -3913,6 +5168,11 @@
       </c>
     </row>
     <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B268" t="inlineStr">
         <is>
           <t>Autlán De Navarro</t>
@@ -3926,6 +5186,11 @@
       </c>
     </row>
     <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B269" t="inlineStr">
         <is>
           <t>Ayotlán</t>
@@ -3939,6 +5204,11 @@
       </c>
     </row>
     <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B270" t="inlineStr">
         <is>
           <t>Ayutla</t>
@@ -3952,6 +5222,11 @@
       </c>
     </row>
     <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B271" t="inlineStr">
         <is>
           <t>Cabo Corrientes</t>
@@ -3965,6 +5240,11 @@
       </c>
     </row>
     <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B272" t="inlineStr">
         <is>
           <t>Casimiro Castillo</t>
@@ -3978,6 +5258,11 @@
       </c>
     </row>
     <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B273" t="inlineStr">
         <is>
           <t>Chapala</t>
@@ -3991,6 +5276,11 @@
       </c>
     </row>
     <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B274" t="inlineStr">
         <is>
           <t>Chimaltitán</t>
@@ -4004,6 +5294,11 @@
       </c>
     </row>
     <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B275" t="inlineStr">
         <is>
           <t>Cihuatlán</t>
@@ -4017,6 +5312,11 @@
       </c>
     </row>
     <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B276" t="inlineStr">
         <is>
           <t>Cocula</t>
@@ -4030,6 +5330,11 @@
       </c>
     </row>
     <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B277" t="inlineStr">
         <is>
           <t>Colotlán</t>
@@ -4043,6 +5348,11 @@
       </c>
     </row>
     <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B278" t="inlineStr">
         <is>
           <t>Concepción De Buenos Aires</t>
@@ -4056,6 +5366,11 @@
       </c>
     </row>
     <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B279" t="inlineStr">
         <is>
           <t>Cuautitlán De García Barragán</t>
@@ -4069,6 +5384,11 @@
       </c>
     </row>
     <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B280" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -4082,6 +5402,11 @@
       </c>
     </row>
     <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B281" t="inlineStr">
         <is>
           <t>Degollado</t>
@@ -4095,6 +5420,11 @@
       </c>
     </row>
     <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B282" t="inlineStr">
         <is>
           <t>El Grullo</t>
@@ -4108,6 +5438,11 @@
       </c>
     </row>
     <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B283" t="inlineStr">
         <is>
           <t>Encarnación De Díaz</t>
@@ -4121,6 +5456,11 @@
       </c>
     </row>
     <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B284" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -4134,6 +5474,11 @@
       </c>
     </row>
     <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B285" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -4147,6 +5492,11 @@
       </c>
     </row>
     <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B286" t="inlineStr">
         <is>
           <t>Jilotlán De Los Dolores</t>
@@ -4160,6 +5510,11 @@
       </c>
     </row>
     <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B287" t="inlineStr">
         <is>
           <t>Jocotepec</t>
@@ -4173,6 +5528,11 @@
       </c>
     </row>
     <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B288" t="inlineStr">
         <is>
           <t>Juanacatlán</t>
@@ -4186,6 +5546,11 @@
       </c>
     </row>
     <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B289" t="inlineStr">
         <is>
           <t>La Barca</t>
@@ -4199,6 +5564,11 @@
       </c>
     </row>
     <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B290" t="inlineStr">
         <is>
           <t>La Manzanilla De La Paz</t>
@@ -4212,6 +5582,11 @@
       </c>
     </row>
     <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B291" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -4225,6 +5600,11 @@
       </c>
     </row>
     <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B292" t="inlineStr">
         <is>
           <t>Mazamitla</t>
@@ -4238,6 +5618,11 @@
       </c>
     </row>
     <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B293" t="inlineStr">
         <is>
           <t>Mezquitic</t>
@@ -4251,6 +5636,11 @@
       </c>
     </row>
     <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B294" t="inlineStr">
         <is>
           <t>Ojuelos De Jalisco</t>
@@ -4264,6 +5654,11 @@
       </c>
     </row>
     <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B295" t="inlineStr">
         <is>
           <t>Puerto Vallarta</t>
@@ -4277,6 +5672,11 @@
       </c>
     </row>
     <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B296" t="inlineStr">
         <is>
           <t>San Cristóbal De La Barranca</t>
@@ -4290,6 +5690,11 @@
       </c>
     </row>
     <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B297" t="inlineStr">
         <is>
           <t>San Diego De Alejandría</t>
@@ -4303,6 +5708,11 @@
       </c>
     </row>
     <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B298" t="inlineStr">
         <is>
           <t>San Julián</t>
@@ -4316,6 +5726,11 @@
       </c>
     </row>
     <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B299" t="inlineStr">
         <is>
           <t>San Martín De Bolaños</t>
@@ -4329,6 +5744,11 @@
       </c>
     </row>
     <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B300" t="inlineStr">
         <is>
           <t>San Martín Hidalgo</t>
@@ -4342,6 +5762,11 @@
       </c>
     </row>
     <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B301" t="inlineStr">
         <is>
           <t>San Miguel El Alto</t>
@@ -4355,6 +5780,11 @@
       </c>
     </row>
     <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B302" t="inlineStr">
         <is>
           <t>San Pedro Tlaquepaque</t>
@@ -4368,6 +5798,11 @@
       </c>
     </row>
     <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B303" t="inlineStr">
         <is>
           <t>Talpa De Allende</t>
@@ -4381,6 +5816,11 @@
       </c>
     </row>
     <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B304" t="inlineStr">
         <is>
           <t>Tamazula De Gordiano</t>
@@ -4394,6 +5834,11 @@
       </c>
     </row>
     <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B305" t="inlineStr">
         <is>
           <t>Tecalitlán</t>
@@ -4407,6 +5852,11 @@
       </c>
     </row>
     <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B306" t="inlineStr">
         <is>
           <t>Tecolotlán</t>
@@ -4420,6 +5870,11 @@
       </c>
     </row>
     <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B307" t="inlineStr">
         <is>
           <t>Tenamaxtlán</t>
@@ -4433,6 +5888,11 @@
       </c>
     </row>
     <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B308" t="inlineStr">
         <is>
           <t>Tepatitlán De Morelos</t>
@@ -4446,6 +5906,11 @@
       </c>
     </row>
     <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B309" t="inlineStr">
         <is>
           <t>Tizapán El Alto</t>
@@ -4459,6 +5924,11 @@
       </c>
     </row>
     <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B310" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -4472,6 +5942,11 @@
       </c>
     </row>
     <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B311" t="inlineStr">
         <is>
           <t>Tototlán</t>
@@ -4485,6 +5960,11 @@
       </c>
     </row>
     <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B312" t="inlineStr">
         <is>
           <t>Tuxcueca</t>
@@ -4498,6 +5978,11 @@
       </c>
     </row>
     <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B313" t="inlineStr">
         <is>
           <t>Unión De San Antonio</t>
@@ -4511,6 +5996,11 @@
       </c>
     </row>
     <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B314" t="inlineStr">
         <is>
           <t>Unión De Tula</t>
@@ -4524,6 +6014,11 @@
       </c>
     </row>
     <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B315" t="inlineStr">
         <is>
           <t>Villa Purificación</t>
@@ -4537,6 +6032,11 @@
       </c>
     </row>
     <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B316" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -4550,6 +6050,11 @@
       </c>
     </row>
     <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B317" t="inlineStr">
         <is>
           <t>Zapotlanejo</t>
@@ -4563,6 +6068,11 @@
       </c>
     </row>
     <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B318" t="inlineStr">
         <is>
           <t>Zapotlán El Grande</t>
@@ -4576,6 +6086,11 @@
       </c>
     </row>
     <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B319" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4607,6 +6122,11 @@
       </c>
     </row>
     <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B321" t="inlineStr">
         <is>
           <t>Angamacutiro</t>
@@ -4620,6 +6140,11 @@
       </c>
     </row>
     <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B322" t="inlineStr">
         <is>
           <t>Apatzingán</t>
@@ -4633,6 +6158,11 @@
       </c>
     </row>
     <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B323" t="inlineStr">
         <is>
           <t>Aquila</t>
@@ -4646,6 +6176,11 @@
       </c>
     </row>
     <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B324" t="inlineStr">
         <is>
           <t>Ario</t>
@@ -4659,6 +6194,11 @@
       </c>
     </row>
     <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B325" t="inlineStr">
         <is>
           <t>Arteaga</t>
@@ -4672,6 +6212,11 @@
       </c>
     </row>
     <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B326" t="inlineStr">
         <is>
           <t>Carácuaro</t>
@@ -4685,6 +6230,11 @@
       </c>
     </row>
     <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B327" t="inlineStr">
         <is>
           <t>Charo</t>
@@ -4698,6 +6248,11 @@
       </c>
     </row>
     <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B328" t="inlineStr">
         <is>
           <t>Chucándiro</t>
@@ -4711,6 +6266,11 @@
       </c>
     </row>
     <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B329" t="inlineStr">
         <is>
           <t>Churumuco</t>
@@ -4724,6 +6284,11 @@
       </c>
     </row>
     <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B330" t="inlineStr">
         <is>
           <t>Coahuayana</t>
@@ -4737,6 +6302,11 @@
       </c>
     </row>
     <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B331" t="inlineStr">
         <is>
           <t>Coalcomán De Vázquez Pallares</t>
@@ -4750,6 +6320,11 @@
       </c>
     </row>
     <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B332" t="inlineStr">
         <is>
           <t>Cuitzeo</t>
@@ -4763,6 +6338,11 @@
       </c>
     </row>
     <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B333" t="inlineStr">
         <is>
           <t>Epitacio Huerta</t>
@@ -4776,6 +6356,11 @@
       </c>
     </row>
     <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B334" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -4789,6 +6374,11 @@
       </c>
     </row>
     <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B335" t="inlineStr">
         <is>
           <t>Huetamo</t>
@@ -4802,6 +6392,11 @@
       </c>
     </row>
     <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B336" t="inlineStr">
         <is>
           <t>Ixtlán</t>
@@ -4815,6 +6410,11 @@
       </c>
     </row>
     <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B337" t="inlineStr">
         <is>
           <t>Jiménez</t>
@@ -4828,6 +6428,11 @@
       </c>
     </row>
     <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B338" t="inlineStr">
         <is>
           <t>José Sixto Verduzco</t>
@@ -4841,6 +6446,11 @@
       </c>
     </row>
     <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B339" t="inlineStr">
         <is>
           <t>Jungapeo</t>
@@ -4854,6 +6464,11 @@
       </c>
     </row>
     <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B340" t="inlineStr">
         <is>
           <t>La Huacana</t>
@@ -4867,6 +6482,11 @@
       </c>
     </row>
     <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B341" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -4880,6 +6500,11 @@
       </c>
     </row>
     <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B342" t="inlineStr">
         <is>
           <t>Lagunillas</t>
@@ -4893,6 +6518,11 @@
       </c>
     </row>
     <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B343" t="inlineStr">
         <is>
           <t>Los Reyes</t>
@@ -4906,6 +6536,11 @@
       </c>
     </row>
     <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B344" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -4919,6 +6554,11 @@
       </c>
     </row>
     <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B345" t="inlineStr">
         <is>
           <t>Maravatío</t>
@@ -4932,6 +6572,11 @@
       </c>
     </row>
     <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B346" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -4945,6 +6590,11 @@
       </c>
     </row>
     <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B347" t="inlineStr">
         <is>
           <t>Morelos</t>
@@ -4958,6 +6608,11 @@
       </c>
     </row>
     <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B348" t="inlineStr">
         <is>
           <t>Múgica</t>
@@ -4971,6 +6626,11 @@
       </c>
     </row>
     <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B349" t="inlineStr">
         <is>
           <t>Nahuatzen</t>
@@ -4984,6 +6644,11 @@
       </c>
     </row>
     <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B350" t="inlineStr">
         <is>
           <t>Pajacuarán</t>
@@ -4997,6 +6662,11 @@
       </c>
     </row>
     <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B351" t="inlineStr">
         <is>
           <t>Paracho</t>
@@ -5010,6 +6680,11 @@
       </c>
     </row>
     <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B352" t="inlineStr">
         <is>
           <t>Penjamillo</t>
@@ -5023,6 +6698,11 @@
       </c>
     </row>
     <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B353" t="inlineStr">
         <is>
           <t>Peribán</t>
@@ -5036,6 +6716,11 @@
       </c>
     </row>
     <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B354" t="inlineStr">
         <is>
           <t>Puruándiro</t>
@@ -5049,6 +6734,11 @@
       </c>
     </row>
     <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B355" t="inlineStr">
         <is>
           <t>Pátzcuaro</t>
@@ -5062,6 +6752,11 @@
       </c>
     </row>
     <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B356" t="inlineStr">
         <is>
           <t>Quiroga</t>
@@ -5075,6 +6770,11 @@
       </c>
     </row>
     <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B357" t="inlineStr">
         <is>
           <t>Sahuayo</t>
@@ -5088,6 +6788,11 @@
       </c>
     </row>
     <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B358" t="inlineStr">
         <is>
           <t>Salvador Escalante</t>
@@ -5101,6 +6806,11 @@
       </c>
     </row>
     <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B359" t="inlineStr">
         <is>
           <t>Tacámbaro</t>
@@ -5114,6 +6824,11 @@
       </c>
     </row>
     <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B360" t="inlineStr">
         <is>
           <t>Tangamandapio</t>
@@ -5127,6 +6842,11 @@
       </c>
     </row>
     <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B361" t="inlineStr">
         <is>
           <t>Tangancícuaro</t>
@@ -5140,6 +6860,11 @@
       </c>
     </row>
     <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B362" t="inlineStr">
         <is>
           <t>Tanhuato</t>
@@ -5153,6 +6878,11 @@
       </c>
     </row>
     <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B363" t="inlineStr">
         <is>
           <t>Tepalcatepec</t>
@@ -5166,6 +6896,11 @@
       </c>
     </row>
     <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B364" t="inlineStr">
         <is>
           <t>Tiquicheo De Nicolás Romero</t>
@@ -5179,6 +6914,11 @@
       </c>
     </row>
     <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B365" t="inlineStr">
         <is>
           <t>Tlalpujahua</t>
@@ -5192,6 +6932,11 @@
       </c>
     </row>
     <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B366" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -5205,6 +6950,11 @@
       </c>
     </row>
     <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B367" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -5218,6 +6968,11 @@
       </c>
     </row>
     <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B368" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -5231,6 +6986,11 @@
       </c>
     </row>
     <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B369" t="inlineStr">
         <is>
           <t>Vista Hermosa</t>
@@ -5244,6 +7004,11 @@
       </c>
     </row>
     <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B370" t="inlineStr">
         <is>
           <t>Yurécuaro</t>
@@ -5257,6 +7022,11 @@
       </c>
     </row>
     <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B371" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -5270,6 +7040,11 @@
       </c>
     </row>
     <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B372" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -5283,6 +7058,11 @@
       </c>
     </row>
     <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B373" t="inlineStr">
         <is>
           <t>Zinapécuaro</t>
@@ -5296,6 +7076,11 @@
       </c>
     </row>
     <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B374" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5327,6 +7112,11 @@
       </c>
     </row>
     <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B376" t="inlineStr">
         <is>
           <t>Ayala</t>
@@ -5340,6 +7130,11 @@
       </c>
     </row>
     <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B377" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -5353,6 +7148,11 @@
       </c>
     </row>
     <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B378" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -5366,6 +7166,11 @@
       </c>
     </row>
     <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B379" t="inlineStr">
         <is>
           <t>Emiliano Zapata</t>
@@ -5379,6 +7184,11 @@
       </c>
     </row>
     <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B380" t="inlineStr">
         <is>
           <t>Jojutla</t>
@@ -5392,6 +7202,11 @@
       </c>
     </row>
     <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B381" t="inlineStr">
         <is>
           <t>Temixco</t>
@@ -5405,6 +7220,11 @@
       </c>
     </row>
     <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B382" t="inlineStr">
         <is>
           <t>Tlaltizapán De Zapata</t>
@@ -5418,6 +7238,11 @@
       </c>
     </row>
     <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B383" t="inlineStr">
         <is>
           <t>Tlaquiltenango</t>
@@ -5431,6 +7256,11 @@
       </c>
     </row>
     <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B384" t="inlineStr">
         <is>
           <t>Totolapan</t>
@@ -5444,6 +7274,11 @@
       </c>
     </row>
     <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B385" t="inlineStr">
         <is>
           <t>Xochitepec</t>
@@ -5457,6 +7292,11 @@
       </c>
     </row>
     <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B386" t="inlineStr">
         <is>
           <t>Yautepec</t>
@@ -5470,6 +7310,11 @@
       </c>
     </row>
     <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B387" t="inlineStr">
         <is>
           <t>Zacatepec</t>
@@ -5483,6 +7328,11 @@
       </c>
     </row>
     <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B388" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5514,6 +7364,11 @@
       </c>
     </row>
     <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B390" t="inlineStr">
         <is>
           <t>Bahía De Banderas</t>
@@ -5527,6 +7382,11 @@
       </c>
     </row>
     <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B391" t="inlineStr">
         <is>
           <t>Compostela</t>
@@ -5540,6 +7400,11 @@
       </c>
     </row>
     <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B392" t="inlineStr">
         <is>
           <t>Ixtlán Del Río</t>
@@ -5553,6 +7418,11 @@
       </c>
     </row>
     <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B393" t="inlineStr">
         <is>
           <t>Rosamorada</t>
@@ -5566,6 +7436,11 @@
       </c>
     </row>
     <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B394" t="inlineStr">
         <is>
           <t>San Blas</t>
@@ -5579,6 +7454,11 @@
       </c>
     </row>
     <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B395" t="inlineStr">
         <is>
           <t>Santiago Ixcuintla</t>
@@ -5592,6 +7472,11 @@
       </c>
     </row>
     <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B396" t="inlineStr">
         <is>
           <t>Tecuala</t>
@@ -5605,6 +7490,11 @@
       </c>
     </row>
     <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B397" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -5618,6 +7508,11 @@
       </c>
     </row>
     <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B398" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -5631,6 +7526,11 @@
       </c>
     </row>
     <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B399" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5662,6 +7562,11 @@
       </c>
     </row>
     <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B401" t="inlineStr">
         <is>
           <t>China</t>
@@ -5675,6 +7580,11 @@
       </c>
     </row>
     <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B402" t="inlineStr">
         <is>
           <t>Galeana</t>
@@ -5688,6 +7598,11 @@
       </c>
     </row>
     <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B403" t="inlineStr">
         <is>
           <t>Monterrey</t>
@@ -5701,6 +7616,11 @@
       </c>
     </row>
     <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B404" t="inlineStr">
         <is>
           <t>San Pedro Garza García</t>
@@ -5714,6 +7634,11 @@
       </c>
     </row>
     <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B405" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5745,6 +7670,11 @@
       </c>
     </row>
     <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B407" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Huajuapan De León</t>
@@ -5758,6 +7688,11 @@
       </c>
     </row>
     <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B408" t="inlineStr">
         <is>
           <t>Huajuapan De León</t>
@@ -5771,6 +7706,11 @@
       </c>
     </row>
     <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B409" t="inlineStr">
         <is>
           <t>Ixpantepec Nieves</t>
@@ -5784,6 +7724,11 @@
       </c>
     </row>
     <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B410" t="inlineStr">
         <is>
           <t>Loma Bonita</t>
@@ -5797,6 +7742,11 @@
       </c>
     </row>
     <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B411" t="inlineStr">
         <is>
           <t>Mariscala De Juárez</t>
@@ -5810,6 +7760,11 @@
       </c>
     </row>
     <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B412" t="inlineStr">
         <is>
           <t>Matías Romero Avendaño</t>
@@ -5823,6 +7778,11 @@
       </c>
     </row>
     <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B413" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -5836,6 +7796,11 @@
       </c>
     </row>
     <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B414" t="inlineStr">
         <is>
           <t>Ocotlán De Morelos</t>
@@ -5849,6 +7814,11 @@
       </c>
     </row>
     <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B415" t="inlineStr">
         <is>
           <t>Salina Cruz</t>
@@ -5862,6 +7832,11 @@
       </c>
     </row>
     <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B416" t="inlineStr">
         <is>
           <t>San Agustín Tlacotepec</t>
@@ -5875,6 +7850,11 @@
       </c>
     </row>
     <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B417" t="inlineStr">
         <is>
           <t>San Antonio Sinicahua</t>
@@ -5888,6 +7868,11 @@
       </c>
     </row>
     <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B418" t="inlineStr">
         <is>
           <t>San Felipe Jalapa De Díaz</t>
@@ -5901,6 +7886,11 @@
       </c>
     </row>
     <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B419" t="inlineStr">
         <is>
           <t>San Felipe Usila</t>
@@ -5914,6 +7904,11 @@
       </c>
     </row>
     <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B420" t="inlineStr">
         <is>
           <t>San Francisco Teopan</t>
@@ -5927,6 +7922,11 @@
       </c>
     </row>
     <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B421" t="inlineStr">
         <is>
           <t>San José Chiltepec</t>
@@ -5940,6 +7940,11 @@
       </c>
     </row>
     <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B422" t="inlineStr">
         <is>
           <t>San Juan Bautista Coixtlahuaca</t>
@@ -5953,6 +7958,11 @@
       </c>
     </row>
     <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B423" t="inlineStr">
         <is>
           <t>San Juan Bautista Lo De Soto</t>
@@ -5966,6 +7976,11 @@
       </c>
     </row>
     <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B424" t="inlineStr">
         <is>
           <t>San Juan Bautista Tuxtepec</t>
@@ -5979,6 +7994,11 @@
       </c>
     </row>
     <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B425" t="inlineStr">
         <is>
           <t>San Juan Lachao</t>
@@ -5992,6 +8012,11 @@
       </c>
     </row>
     <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B426" t="inlineStr">
         <is>
           <t>San Juan Quiotepec</t>
@@ -6005,6 +8030,11 @@
       </c>
     </row>
     <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B427" t="inlineStr">
         <is>
           <t>San Lorenzo Texmelúcan</t>
@@ -6018,6 +8048,11 @@
       </c>
     </row>
     <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B428" t="inlineStr">
         <is>
           <t>San Lucas Ojitlán</t>
@@ -6031,6 +8066,11 @@
       </c>
     </row>
     <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B429" t="inlineStr">
         <is>
           <t>San Miguel Amatitlán</t>
@@ -6044,6 +8084,11 @@
       </c>
     </row>
     <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B430" t="inlineStr">
         <is>
           <t>San Miguel Amatlán</t>
@@ -6057,6 +8102,11 @@
       </c>
     </row>
     <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B431" t="inlineStr">
         <is>
           <t>San Miguel El Grande</t>
@@ -6070,6 +8120,11 @@
       </c>
     </row>
     <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B432" t="inlineStr">
         <is>
           <t>San Miguel Soyaltepec</t>
@@ -6083,6 +8138,11 @@
       </c>
     </row>
     <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B433" t="inlineStr">
         <is>
           <t>San Miguel Tlacamama</t>
@@ -6096,6 +8156,11 @@
       </c>
     </row>
     <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B434" t="inlineStr">
         <is>
           <t>San Miguel Tlacotepec</t>
@@ -6109,6 +8174,11 @@
       </c>
     </row>
     <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B435" t="inlineStr">
         <is>
           <t>San Nicolás Hidalgo</t>
@@ -6122,6 +8192,11 @@
       </c>
     </row>
     <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B436" t="inlineStr">
         <is>
           <t>San Pablo Villa De Mitla</t>
@@ -6135,6 +8210,11 @@
       </c>
     </row>
     <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B437" t="inlineStr">
         <is>
           <t>San Sebastián Ixcapa</t>
@@ -6148,6 +8228,11 @@
       </c>
     </row>
     <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B438" t="inlineStr">
         <is>
           <t>Santa Catarina Juquila</t>
@@ -6161,6 +8246,11 @@
       </c>
     </row>
     <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B439" t="inlineStr">
         <is>
           <t>Santa Cruz Itundujia</t>
@@ -6174,6 +8264,11 @@
       </c>
     </row>
     <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B440" t="inlineStr">
         <is>
           <t>Santa Cruz Tacache De Mina</t>
@@ -6187,6 +8282,11 @@
       </c>
     </row>
     <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B441" t="inlineStr">
         <is>
           <t>Santa María Huazolotitlán</t>
@@ -6200,6 +8300,11 @@
       </c>
     </row>
     <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B442" t="inlineStr">
         <is>
           <t>Santa María Sola</t>
@@ -6213,6 +8318,11 @@
       </c>
     </row>
     <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B443" t="inlineStr">
         <is>
           <t>Santiago Apóstol</t>
@@ -6226,6 +8336,11 @@
       </c>
     </row>
     <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B444" t="inlineStr">
         <is>
           <t>Santiago Ayuquililla</t>
@@ -6239,6 +8354,11 @@
       </c>
     </row>
     <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B445" t="inlineStr">
         <is>
           <t>Santiago Huajolotitlán</t>
@@ -6252,6 +8372,11 @@
       </c>
     </row>
     <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B446" t="inlineStr">
         <is>
           <t>Santiago Jamiltepec</t>
@@ -6265,6 +8390,11 @@
       </c>
     </row>
     <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B447" t="inlineStr">
         <is>
           <t>Santiago Juxtlahuaca</t>
@@ -6278,6 +8408,11 @@
       </c>
     </row>
     <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B448" t="inlineStr">
         <is>
           <t>Santiago Pinotepa Nacional</t>
@@ -6291,6 +8426,11 @@
       </c>
     </row>
     <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B449" t="inlineStr">
         <is>
           <t>Santiago Tamazola</t>
@@ -6304,6 +8444,11 @@
       </c>
     </row>
     <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B450" t="inlineStr">
         <is>
           <t>Santiago Tapextla</t>
@@ -6317,6 +8462,11 @@
       </c>
     </row>
     <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B451" t="inlineStr">
         <is>
           <t>Santo Domingo Armenta</t>
@@ -6330,6 +8480,11 @@
       </c>
     </row>
     <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B452" t="inlineStr">
         <is>
           <t>Santo Domingo Tonalá</t>
@@ -6343,6 +8498,11 @@
       </c>
     </row>
     <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B453" t="inlineStr">
         <is>
           <t>Santos Reyes Nopala</t>
@@ -6356,6 +8516,11 @@
       </c>
     </row>
     <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B454" t="inlineStr">
         <is>
           <t>Silacayoápam</t>
@@ -6369,6 +8534,11 @@
       </c>
     </row>
     <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B455" t="inlineStr">
         <is>
           <t>Taniche</t>
@@ -6382,6 +8552,11 @@
       </c>
     </row>
     <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B456" t="inlineStr">
         <is>
           <t>Tlacolula De Matamoros</t>
@@ -6395,6 +8570,11 @@
       </c>
     </row>
     <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B457" t="inlineStr">
         <is>
           <t>Villa De Tututepec De Melchor Ocampo</t>
@@ -6408,6 +8588,11 @@
       </c>
     </row>
     <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B458" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6439,6 +8624,11 @@
       </c>
     </row>
     <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B460" t="inlineStr">
         <is>
           <t>Ahuazotepec</t>
@@ -6452,6 +8642,11 @@
       </c>
     </row>
     <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B461" t="inlineStr">
         <is>
           <t>Aquixtla</t>
@@ -6465,6 +8660,11 @@
       </c>
     </row>
     <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B462" t="inlineStr">
         <is>
           <t>Atlixco</t>
@@ -6478,6 +8678,11 @@
       </c>
     </row>
     <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B463" t="inlineStr">
         <is>
           <t>Calpan</t>
@@ -6491,6 +8696,11 @@
       </c>
     </row>
     <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B464" t="inlineStr">
         <is>
           <t>Cañada Morelos</t>
@@ -6504,6 +8714,11 @@
       </c>
     </row>
     <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B465" t="inlineStr">
         <is>
           <t>Chiautla</t>
@@ -6517,6 +8732,11 @@
       </c>
     </row>
     <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B466" t="inlineStr">
         <is>
           <t>Chiconcuautla</t>
@@ -6530,6 +8750,11 @@
       </c>
     </row>
     <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B467" t="inlineStr">
         <is>
           <t>Chietla</t>
@@ -6543,6 +8768,11 @@
       </c>
     </row>
     <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B468" t="inlineStr">
         <is>
           <t>Chignahuapan</t>
@@ -6556,6 +8786,11 @@
       </c>
     </row>
     <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B469" t="inlineStr">
         <is>
           <t>Coronango</t>
@@ -6569,6 +8804,11 @@
       </c>
     </row>
     <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B470" t="inlineStr">
         <is>
           <t>Coyomeapan</t>
@@ -6582,6 +8822,11 @@
       </c>
     </row>
     <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B471" t="inlineStr">
         <is>
           <t>Cuautlancingo</t>
@@ -6595,6 +8840,11 @@
       </c>
     </row>
     <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B472" t="inlineStr">
         <is>
           <t>Epatlán</t>
@@ -6608,6 +8858,11 @@
       </c>
     </row>
     <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B473" t="inlineStr">
         <is>
           <t>Huatlatlauca</t>
@@ -6621,6 +8876,11 @@
       </c>
     </row>
     <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B474" t="inlineStr">
         <is>
           <t>Huauchinango</t>
@@ -6634,6 +8894,11 @@
       </c>
     </row>
     <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B475" t="inlineStr">
         <is>
           <t>Huehuetlán El Chico</t>
@@ -6647,6 +8912,11 @@
       </c>
     </row>
     <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B476" t="inlineStr">
         <is>
           <t>Izúcar De Matamoros</t>
@@ -6660,6 +8930,11 @@
       </c>
     </row>
     <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B477" t="inlineStr">
         <is>
           <t>Libres</t>
@@ -6673,6 +8948,11 @@
       </c>
     </row>
     <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B478" t="inlineStr">
         <is>
           <t>Pahuatlán</t>
@@ -6686,6 +8966,11 @@
       </c>
     </row>
     <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B479" t="inlineStr">
         <is>
           <t>Palmar De Bravo</t>
@@ -6699,6 +8984,11 @@
       </c>
     </row>
     <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B480" t="inlineStr">
         <is>
           <t>Piaxtla</t>
@@ -6712,6 +9002,11 @@
       </c>
     </row>
     <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B481" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -6725,6 +9020,11 @@
       </c>
     </row>
     <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B482" t="inlineStr">
         <is>
           <t>Rafael Lara Grajales</t>
@@ -6738,6 +9038,11 @@
       </c>
     </row>
     <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B483" t="inlineStr">
         <is>
           <t>San Nicolás De Los Ranchos</t>
@@ -6751,6 +9056,11 @@
       </c>
     </row>
     <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B484" t="inlineStr">
         <is>
           <t>Santa Isabel Cholula</t>
@@ -6764,6 +9074,11 @@
       </c>
     </row>
     <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B485" t="inlineStr">
         <is>
           <t>Santo Tomás Hueyotlipan</t>
@@ -6777,6 +9092,11 @@
       </c>
     </row>
     <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B486" t="inlineStr">
         <is>
           <t>Tecamachalco</t>
@@ -6790,6 +9110,11 @@
       </c>
     </row>
     <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B487" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -6803,6 +9128,11 @@
       </c>
     </row>
     <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B488" t="inlineStr">
         <is>
           <t>Tlachichuca</t>
@@ -6816,6 +9146,11 @@
       </c>
     </row>
     <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B489" t="inlineStr">
         <is>
           <t>Tlacotepec De Benito Juárez</t>
@@ -6829,6 +9164,11 @@
       </c>
     </row>
     <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B490" t="inlineStr">
         <is>
           <t>Tlacuilotepec</t>
@@ -6842,6 +9182,11 @@
       </c>
     </row>
     <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B491" t="inlineStr">
         <is>
           <t>Tlanepantla</t>
@@ -6855,6 +9200,11 @@
       </c>
     </row>
     <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B492" t="inlineStr">
         <is>
           <t>Tlatlauquitepec</t>
@@ -6868,6 +9218,11 @@
       </c>
     </row>
     <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B493" t="inlineStr">
         <is>
           <t>Tochimilco</t>
@@ -6881,6 +9236,11 @@
       </c>
     </row>
     <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B494" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -6894,6 +9254,11 @@
       </c>
     </row>
     <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B495" t="inlineStr">
         <is>
           <t>Zacapoaxtla</t>
@@ -6907,6 +9272,11 @@
       </c>
     </row>
     <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B496" t="inlineStr">
         <is>
           <t>Zacatlán</t>
@@ -6920,6 +9290,11 @@
       </c>
     </row>
     <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B497" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6951,6 +9326,11 @@
       </c>
     </row>
     <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B499" t="inlineStr">
         <is>
           <t>Cadereyta De Montes</t>
@@ -6964,6 +9344,11 @@
       </c>
     </row>
     <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B500" t="inlineStr">
         <is>
           <t>El Marqués</t>
@@ -6977,6 +9362,11 @@
       </c>
     </row>
     <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B501" t="inlineStr">
         <is>
           <t>Jalpan De Serra</t>
@@ -6990,6 +9380,11 @@
       </c>
     </row>
     <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B502" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -7003,6 +9398,11 @@
       </c>
     </row>
     <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B503" t="inlineStr">
         <is>
           <t>San Juan Del Río</t>
@@ -7016,6 +9416,11 @@
       </c>
     </row>
     <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B504" t="inlineStr">
         <is>
           <t>Tolimán</t>
@@ -7029,6 +9434,11 @@
       </c>
     </row>
     <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B505" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7060,6 +9470,11 @@
       </c>
     </row>
     <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B507" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7091,6 +9506,11 @@
       </c>
     </row>
     <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B509" t="inlineStr">
         <is>
           <t>Cerritos</t>
@@ -7104,6 +9524,11 @@
       </c>
     </row>
     <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B510" t="inlineStr">
         <is>
           <t>Charcas</t>
@@ -7117,6 +9542,11 @@
       </c>
     </row>
     <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B511" t="inlineStr">
         <is>
           <t>Ciudad Fernández</t>
@@ -7130,6 +9560,11 @@
       </c>
     </row>
     <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B512" t="inlineStr">
         <is>
           <t>Ebano</t>
@@ -7143,6 +9578,11 @@
       </c>
     </row>
     <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B513" t="inlineStr">
         <is>
           <t>Mexquitic De Carmona</t>
@@ -7156,6 +9596,11 @@
       </c>
     </row>
     <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B514" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -7169,6 +9614,11 @@
       </c>
     </row>
     <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B515" t="inlineStr">
         <is>
           <t>Salinas</t>
@@ -7182,6 +9632,11 @@
       </c>
     </row>
     <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B516" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -7195,6 +9650,11 @@
       </c>
     </row>
     <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B517" t="inlineStr">
         <is>
           <t>San Vicente Tancuayalab</t>
@@ -7208,6 +9668,11 @@
       </c>
     </row>
     <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B518" t="inlineStr">
         <is>
           <t>Santo Domingo</t>
@@ -7221,6 +9686,11 @@
       </c>
     </row>
     <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B519" t="inlineStr">
         <is>
           <t>Soledad De Graciano Sánchez</t>
@@ -7234,6 +9704,11 @@
       </c>
     </row>
     <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B520" t="inlineStr">
         <is>
           <t>Villa De Ramos</t>
@@ -7247,6 +9722,11 @@
       </c>
     </row>
     <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B521" t="inlineStr">
         <is>
           <t>Villa De Reyes</t>
@@ -7260,6 +9740,11 @@
       </c>
     </row>
     <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B522" t="inlineStr">
         <is>
           <t>Villa Hidalgo</t>
@@ -7273,6 +9758,11 @@
       </c>
     </row>
     <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B523" t="inlineStr">
         <is>
           <t>Villa Juárez</t>
@@ -7286,6 +9776,11 @@
       </c>
     </row>
     <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B524" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7317,6 +9812,11 @@
       </c>
     </row>
     <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B526" t="inlineStr">
         <is>
           <t>Angostura</t>
@@ -7330,6 +9830,11 @@
       </c>
     </row>
     <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B527" t="inlineStr">
         <is>
           <t>Badiraguato</t>
@@ -7343,6 +9848,11 @@
       </c>
     </row>
     <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B528" t="inlineStr">
         <is>
           <t>Choix</t>
@@ -7356,6 +9866,11 @@
       </c>
     </row>
     <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B529" t="inlineStr">
         <is>
           <t>Cosalá</t>
@@ -7369,6 +9884,11 @@
       </c>
     </row>
     <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B530" t="inlineStr">
         <is>
           <t>Culiacán</t>
@@ -7382,6 +9902,11 @@
       </c>
     </row>
     <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B531" t="inlineStr">
         <is>
           <t>El Fuerte</t>
@@ -7395,6 +9920,11 @@
       </c>
     </row>
     <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B532" t="inlineStr">
         <is>
           <t>Escuinapa</t>
@@ -7408,6 +9938,11 @@
       </c>
     </row>
     <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B533" t="inlineStr">
         <is>
           <t>Guasave</t>
@@ -7421,6 +9956,11 @@
       </c>
     </row>
     <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B534" t="inlineStr">
         <is>
           <t>Mocorito</t>
@@ -7434,6 +9974,11 @@
       </c>
     </row>
     <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B535" t="inlineStr">
         <is>
           <t>Navolato</t>
@@ -7447,6 +9992,11 @@
       </c>
     </row>
     <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B536" t="inlineStr">
         <is>
           <t>Salvador Alvarado</t>
@@ -7460,6 +10010,11 @@
       </c>
     </row>
     <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B537" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7491,6 +10046,11 @@
       </c>
     </row>
     <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B539" t="inlineStr">
         <is>
           <t>Bavispe</t>
@@ -7504,6 +10064,11 @@
       </c>
     </row>
     <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B540" t="inlineStr">
         <is>
           <t>Cajeme</t>
@@ -7517,6 +10082,11 @@
       </c>
     </row>
     <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B541" t="inlineStr">
         <is>
           <t>Empalme</t>
@@ -7530,6 +10100,11 @@
       </c>
     </row>
     <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B542" t="inlineStr">
         <is>
           <t>Etchojoa</t>
@@ -7543,6 +10118,11 @@
       </c>
     </row>
     <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B543" t="inlineStr">
         <is>
           <t>Hermosillo</t>
@@ -7556,6 +10136,11 @@
       </c>
     </row>
     <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B544" t="inlineStr">
         <is>
           <t>Navojoa</t>
@@ -7569,6 +10154,11 @@
       </c>
     </row>
     <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B545" t="inlineStr">
         <is>
           <t>Nogales</t>
@@ -7582,6 +10172,11 @@
       </c>
     </row>
     <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B546" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7613,6 +10208,11 @@
       </c>
     </row>
     <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B548" t="inlineStr">
         <is>
           <t>Comalcalco</t>
@@ -7626,6 +10226,11 @@
       </c>
     </row>
     <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B549" t="inlineStr">
         <is>
           <t>Cunduacán</t>
@@ -7639,6 +10244,11 @@
       </c>
     </row>
     <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B550" t="inlineStr">
         <is>
           <t>Cárdenas</t>
@@ -7652,6 +10262,11 @@
       </c>
     </row>
     <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B551" t="inlineStr">
         <is>
           <t>Jonuta</t>
@@ -7665,6 +10280,11 @@
       </c>
     </row>
     <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B552" t="inlineStr">
         <is>
           <t>Tacotalpa</t>
@@ -7678,6 +10298,11 @@
       </c>
     </row>
     <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B553" t="inlineStr">
         <is>
           <t>Tenosique</t>
@@ -7691,6 +10316,11 @@
       </c>
     </row>
     <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B554" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7722,6 +10352,11 @@
       </c>
     </row>
     <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B556" t="inlineStr">
         <is>
           <t>Altamira</t>
@@ -7735,6 +10370,11 @@
       </c>
     </row>
     <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B557" t="inlineStr">
         <is>
           <t>Camargo</t>
@@ -7748,6 +10388,11 @@
       </c>
     </row>
     <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B558" t="inlineStr">
         <is>
           <t>Ciudad Madero</t>
@@ -7761,6 +10406,11 @@
       </c>
     </row>
     <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B559" t="inlineStr">
         <is>
           <t>El Mante</t>
@@ -7774,6 +10424,11 @@
       </c>
     </row>
     <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B560" t="inlineStr">
         <is>
           <t>Llera</t>
@@ -7787,6 +10442,11 @@
       </c>
     </row>
     <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B561" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -7800,6 +10460,11 @@
       </c>
     </row>
     <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B562" t="inlineStr">
         <is>
           <t>Nuevo Laredo</t>
@@ -7813,6 +10478,11 @@
       </c>
     </row>
     <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B563" t="inlineStr">
         <is>
           <t>Reynosa</t>
@@ -7826,6 +10496,11 @@
       </c>
     </row>
     <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B564" t="inlineStr">
         <is>
           <t>Río Bravo</t>
@@ -7839,6 +10514,11 @@
       </c>
     </row>
     <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B565" t="inlineStr">
         <is>
           <t>San Fernando</t>
@@ -7852,6 +10532,11 @@
       </c>
     </row>
     <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B566" t="inlineStr">
         <is>
           <t>Soto La Marina</t>
@@ -7865,6 +10550,11 @@
       </c>
     </row>
     <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B567" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -7878,6 +10568,11 @@
       </c>
     </row>
     <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B568" t="inlineStr">
         <is>
           <t>Tula</t>
@@ -7891,6 +10586,11 @@
       </c>
     </row>
     <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B569" t="inlineStr">
         <is>
           <t>Valle Hermoso</t>
@@ -7904,6 +10604,11 @@
       </c>
     </row>
     <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B570" t="inlineStr">
         <is>
           <t>Victoria</t>
@@ -7917,6 +10622,11 @@
       </c>
     </row>
     <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B571" t="inlineStr">
         <is>
           <t>Xicoténcatl</t>
@@ -7930,6 +10640,11 @@
       </c>
     </row>
     <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B572" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7961,6 +10676,11 @@
       </c>
     </row>
     <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B574" t="inlineStr">
         <is>
           <t>Hueyotlipan</t>
@@ -7974,6 +10694,11 @@
       </c>
     </row>
     <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B575" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -7987,6 +10712,11 @@
       </c>
     </row>
     <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B576" t="inlineStr">
         <is>
           <t>Tlaxco</t>
@@ -8000,6 +10730,11 @@
       </c>
     </row>
     <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B577" t="inlineStr">
         <is>
           <t>Tzompantepec</t>
@@ -8013,6 +10748,11 @@
       </c>
     </row>
     <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B578" t="inlineStr">
         <is>
           <t>Total</t>
@@ -8044,6 +10784,11 @@
       </c>
     </row>
     <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B580" t="inlineStr">
         <is>
           <t>Altotonga</t>
@@ -8057,6 +10802,11 @@
       </c>
     </row>
     <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B581" t="inlineStr">
         <is>
           <t>Astacinga</t>
@@ -8070,6 +10820,11 @@
       </c>
     </row>
     <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B582" t="inlineStr">
         <is>
           <t>Calcahualco</t>
@@ -8083,6 +10838,11 @@
       </c>
     </row>
     <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B583" t="inlineStr">
         <is>
           <t>Carrillo Puerto</t>
@@ -8096,6 +10856,11 @@
       </c>
     </row>
     <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B584" t="inlineStr">
         <is>
           <t>Castillo De Teayo</t>
@@ -8109,6 +10874,11 @@
       </c>
     </row>
     <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B585" t="inlineStr">
         <is>
           <t>Chacaltianguis</t>
@@ -8122,6 +10892,11 @@
       </c>
     </row>
     <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B586" t="inlineStr">
         <is>
           <t>Chalma</t>
@@ -8135,6 +10910,11 @@
       </c>
     </row>
     <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B587" t="inlineStr">
         <is>
           <t>Chiconamel</t>
@@ -8148,6 +10928,11 @@
       </c>
     </row>
     <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B588" t="inlineStr">
         <is>
           <t>Chiconquiaco</t>
@@ -8161,6 +10946,11 @@
       </c>
     </row>
     <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B589" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -8174,6 +10964,11 @@
       </c>
     </row>
     <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B590" t="inlineStr">
         <is>
           <t>Cosamaloapan De Carpio</t>
@@ -8187,6 +10982,11 @@
       </c>
     </row>
     <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B591" t="inlineStr">
         <is>
           <t>Coscomatepec</t>
@@ -8200,6 +11000,11 @@
       </c>
     </row>
     <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B592" t="inlineStr">
         <is>
           <t>Cotaxtla</t>
@@ -8213,6 +11018,11 @@
       </c>
     </row>
     <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B593" t="inlineStr">
         <is>
           <t>Coyutla</t>
@@ -8226,6 +11036,11 @@
       </c>
     </row>
     <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B594" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -8239,6 +11054,11 @@
       </c>
     </row>
     <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B595" t="inlineStr">
         <is>
           <t>Gutiérrez Zamora</t>
@@ -8252,6 +11072,11 @@
       </c>
     </row>
     <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B596" t="inlineStr">
         <is>
           <t>Hidalgotitlán</t>
@@ -8265,6 +11090,11 @@
       </c>
     </row>
     <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B597" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -8278,6 +11108,11 @@
       </c>
     </row>
     <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B598" t="inlineStr">
         <is>
           <t>Hueyapan De Ocampo</t>
@@ -8291,6 +11126,11 @@
       </c>
     </row>
     <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B599" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -8304,6 +11144,11 @@
       </c>
     </row>
     <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B600" t="inlineStr">
         <is>
           <t>Ixhuatlancillo</t>
@@ -8317,6 +11162,11 @@
       </c>
     </row>
     <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B601" t="inlineStr">
         <is>
           <t>Ixhuatlán De Madero</t>
@@ -8330,6 +11180,11 @@
       </c>
     </row>
     <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B602" t="inlineStr">
         <is>
           <t>Jesús Carranza</t>
@@ -8343,6 +11198,11 @@
       </c>
     </row>
     <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B603" t="inlineStr">
         <is>
           <t>José Azueta</t>
@@ -8356,6 +11216,11 @@
       </c>
     </row>
     <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B604" t="inlineStr">
         <is>
           <t>Juan Rodríguez Clara</t>
@@ -8369,6 +11234,11 @@
       </c>
     </row>
     <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B605" t="inlineStr">
         <is>
           <t>Jáltipan</t>
@@ -8382,6 +11252,11 @@
       </c>
     </row>
     <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B606" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -8395,6 +11270,11 @@
       </c>
     </row>
     <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B607" t="inlineStr">
         <is>
           <t>Manlio Fabio Altamirano</t>
@@ -8408,6 +11288,11 @@
       </c>
     </row>
     <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B608" t="inlineStr">
         <is>
           <t>Medellín</t>
@@ -8421,6 +11306,11 @@
       </c>
     </row>
     <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B609" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -8434,6 +11324,11 @@
       </c>
     </row>
     <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B610" t="inlineStr">
         <is>
           <t>Nautla</t>
@@ -8447,6 +11342,11 @@
       </c>
     </row>
     <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B611" t="inlineStr">
         <is>
           <t>Oluta</t>
@@ -8460,6 +11360,11 @@
       </c>
     </row>
     <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B612" t="inlineStr">
         <is>
           <t>Otatitlán</t>
@@ -8473,6 +11378,11 @@
       </c>
     </row>
     <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B613" t="inlineStr">
         <is>
           <t>Papantla</t>
@@ -8486,6 +11396,11 @@
       </c>
     </row>
     <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B614" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -8499,6 +11414,11 @@
       </c>
     </row>
     <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B615" t="inlineStr">
         <is>
           <t>Poza Rica De Hidalgo</t>
@@ -8512,6 +11432,11 @@
       </c>
     </row>
     <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B616" t="inlineStr">
         <is>
           <t>Pánuco</t>
@@ -8525,6 +11450,11 @@
       </c>
     </row>
     <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B617" t="inlineStr">
         <is>
           <t>San Juan Evangelista</t>
@@ -8538,6 +11468,11 @@
       </c>
     </row>
     <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B618" t="inlineStr">
         <is>
           <t>Soledad Atzompa</t>
@@ -8551,6 +11486,11 @@
       </c>
     </row>
     <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B619" t="inlineStr">
         <is>
           <t>Tecolutla</t>
@@ -8564,6 +11504,11 @@
       </c>
     </row>
     <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B620" t="inlineStr">
         <is>
           <t>Texistepec</t>
@@ -8577,6 +11522,11 @@
       </c>
     </row>
     <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B621" t="inlineStr">
         <is>
           <t>Tezonapa</t>
@@ -8590,6 +11540,11 @@
       </c>
     </row>
     <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B622" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -8603,6 +11558,11 @@
       </c>
     </row>
     <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B623" t="inlineStr">
         <is>
           <t>Tihuatlán</t>
@@ -8616,6 +11576,11 @@
       </c>
     </row>
     <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B624" t="inlineStr">
         <is>
           <t>Tlapacoyan</t>
@@ -8629,6 +11594,11 @@
       </c>
     </row>
     <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B625" t="inlineStr">
         <is>
           <t>Tlaquilpa</t>
@@ -8642,6 +11612,11 @@
       </c>
     </row>
     <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B626" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -8655,6 +11630,11 @@
       </c>
     </row>
     <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B627" t="inlineStr">
         <is>
           <t>Uxpanapa</t>
@@ -8668,6 +11648,11 @@
       </c>
     </row>
     <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B628" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -8681,6 +11666,11 @@
       </c>
     </row>
     <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B629" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -8694,6 +11684,11 @@
       </c>
     </row>
     <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B630" t="inlineStr">
         <is>
           <t>Yanga</t>
@@ -8707,6 +11702,11 @@
       </c>
     </row>
     <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B631" t="inlineStr">
         <is>
           <t>Total</t>
@@ -8738,6 +11738,11 @@
       </c>
     </row>
     <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B633" t="inlineStr">
         <is>
           <t>Peto</t>
@@ -8751,6 +11756,11 @@
       </c>
     </row>
     <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B634" t="inlineStr">
         <is>
           <t>Total</t>
@@ -8782,6 +11792,11 @@
       </c>
     </row>
     <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B636" t="inlineStr">
         <is>
           <t>Fresnillo</t>
@@ -8795,6 +11810,11 @@
       </c>
     </row>
     <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B637" t="inlineStr">
         <is>
           <t>General Francisco R. Murguía</t>
@@ -8808,6 +11828,11 @@
       </c>
     </row>
     <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B638" t="inlineStr">
         <is>
           <t>General Pánfilo Natera</t>
@@ -8821,6 +11846,11 @@
       </c>
     </row>
     <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B639" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -8834,6 +11864,11 @@
       </c>
     </row>
     <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B640" t="inlineStr">
         <is>
           <t>Juan Aldama</t>
@@ -8847,6 +11882,11 @@
       </c>
     </row>
     <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B641" t="inlineStr">
         <is>
           <t>Juchipila</t>
@@ -8860,6 +11900,11 @@
       </c>
     </row>
     <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B642" t="inlineStr">
         <is>
           <t>Loreto</t>
@@ -8873,6 +11918,11 @@
       </c>
     </row>
     <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B643" t="inlineStr">
         <is>
           <t>Miguel Auza</t>
@@ -8886,6 +11936,11 @@
       </c>
     </row>
     <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B644" t="inlineStr">
         <is>
           <t>Monte Escobedo</t>
@@ -8899,6 +11954,11 @@
       </c>
     </row>
     <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B645" t="inlineStr">
         <is>
           <t>Morelos</t>
@@ -8912,6 +11972,11 @@
       </c>
     </row>
     <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B646" t="inlineStr">
         <is>
           <t>Noria De Ángeles</t>
@@ -8925,6 +11990,11 @@
       </c>
     </row>
     <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B647" t="inlineStr">
         <is>
           <t>Ojocaliente</t>
@@ -8938,6 +12008,11 @@
       </c>
     </row>
     <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B648" t="inlineStr">
         <is>
           <t>Pinos</t>
@@ -8951,6 +12026,11 @@
       </c>
     </row>
     <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B649" t="inlineStr">
         <is>
           <t>Río Grande</t>
@@ -8964,6 +12044,11 @@
       </c>
     </row>
     <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B650" t="inlineStr">
         <is>
           <t>Sain Alto</t>
@@ -8977,6 +12062,11 @@
       </c>
     </row>
     <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B651" t="inlineStr">
         <is>
           <t>Sombrerete</t>
@@ -8990,6 +12080,11 @@
       </c>
     </row>
     <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B652" t="inlineStr">
         <is>
           <t>Tepetongo</t>
@@ -9003,6 +12098,11 @@
       </c>
     </row>
     <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B653" t="inlineStr">
         <is>
           <t>Tlaltenango De Sánchez Román</t>
@@ -9016,6 +12116,11 @@
       </c>
     </row>
     <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B654" t="inlineStr">
         <is>
           <t>Valparaíso</t>
@@ -9029,6 +12134,11 @@
       </c>
     </row>
     <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B655" t="inlineStr">
         <is>
           <t>Villa De Cos</t>
@@ -9042,6 +12152,11 @@
       </c>
     </row>
     <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B656" t="inlineStr">
         <is>
           <t>Villanueva</t>
@@ -9055,6 +12170,11 @@
       </c>
     </row>
     <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B657" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -9068,6 +12188,11 @@
       </c>
     </row>
     <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B658" t="inlineStr">
         <is>
           <t>Total</t>
